--- a/sriramModel-nelson-atypical-patientID_7-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_7-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.58165074728176</v>
+        <v>28.62908162623296</v>
       </c>
       <c r="C2">
-        <v>28.69583332332588</v>
+        <v>28.62586638018807</v>
       </c>
       <c r="D2">
-        <v>28.61857679471425</v>
+        <v>28.62930626665238</v>
       </c>
       <c r="E2">
-        <v>28.81556523587512</v>
+        <v>28.61864493898744</v>
       </c>
       <c r="F2">
-        <v>28.74018979225043</v>
+        <v>28.66887065110425</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.55954641487094</v>
+        <v>28.66325807422715</v>
       </c>
       <c r="C3">
-        <v>28.82664471980632</v>
+        <v>28.65591745093903</v>
       </c>
       <c r="D3">
-        <v>28.64958794344899</v>
+        <v>28.66464331341106</v>
       </c>
       <c r="E3">
-        <v>29.04624022820978</v>
+        <v>28.64503643569304</v>
       </c>
       <c r="F3">
-        <v>28.89478910160647</v>
+        <v>28.73934683724804</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.53498970423108</v>
+        <v>28.70203851381977</v>
       </c>
       <c r="C4">
-        <v>28.98705855300682</v>
+        <v>28.68982326195297</v>
       </c>
       <c r="D4">
-        <v>28.69294645364057</v>
+        <v>28.70539002673738</v>
       </c>
       <c r="E4">
-        <v>29.29185100374529</v>
+        <v>28.67845034737805</v>
       </c>
       <c r="F4">
-        <v>29.06239947004028</v>
+        <v>28.81097504095124</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.50874482040361</v>
+        <v>28.74494682133792</v>
       </c>
       <c r="C5">
-        <v>29.17078204445014</v>
+        <v>28.72726227285957</v>
       </c>
       <c r="D5">
-        <v>28.74856093597479</v>
+        <v>28.75095938207273</v>
       </c>
       <c r="E5">
-        <v>29.5521122069693</v>
+        <v>28.71818047112882</v>
       </c>
       <c r="F5">
-        <v>29.24117990587697</v>
+        <v>28.88333494818757</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.4812754470396</v>
+        <v>28.79152510009968</v>
       </c>
       <c r="C6">
-        <v>29.3709667467545</v>
+        <v>28.76791984463202</v>
       </c>
       <c r="D6">
-        <v>28.81633152914788</v>
+        <v>28.80079526520589</v>
       </c>
       <c r="E6">
-        <v>29.82647845785564</v>
+        <v>28.76354008261489</v>
       </c>
       <c r="F6">
-        <v>29.42879074982549</v>
+        <v>28.95604170496651</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.45288095680707</v>
+        <v>28.8413339118299</v>
       </c>
       <c r="C7">
-        <v>29.58066486953746</v>
+        <v>28.81148846137871</v>
       </c>
       <c r="D7">
-        <v>28.89614312458782</v>
+        <v>28.85437030255696</v>
       </c>
       <c r="E7">
-        <v>30.11385086350839</v>
+        <v>28.81386365622621</v>
       </c>
       <c r="F7">
-        <v>29.62237639670489</v>
+        <v>29.0287430736278</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.42376521134361</v>
+        <v>28.89395048117138</v>
       </c>
       <c r="C8">
-        <v>29.79329546729788</v>
+        <v>28.85766771590214</v>
       </c>
       <c r="D8">
-        <v>28.98785530893036</v>
+        <v>28.91118436947654</v>
       </c>
       <c r="E8">
-        <v>30.41205616954066</v>
+        <v>28.86850902686903</v>
       </c>
       <c r="F8">
-        <v>29.81861000086843</v>
+        <v>29.10111692276072</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.39407325955423</v>
+        <v>28.94896915327088</v>
       </c>
       <c r="C9">
-        <v>30.00303750868411</v>
+        <v>28.90616443571218</v>
       </c>
       <c r="D9">
-        <v>29.09128792186704</v>
+        <v>28.97076336827056</v>
       </c>
       <c r="E9">
-        <v>30.71703211503156</v>
+        <v>28.92685932201636</v>
       </c>
       <c r="F9">
-        <v>30.01380896162177</v>
+        <v>29.17287058518269</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.36391145869185</v>
+        <v>29.00600181654107</v>
       </c>
       <c r="C10">
-        <v>30.20508936251417</v>
+        <v>28.95669288042657</v>
       </c>
       <c r="D10">
-        <v>29.20620008501722</v>
+        <v>29.03265811204538</v>
       </c>
       <c r="E10">
-        <v>31.02179439962987</v>
+        <v>28.98832396631597</v>
       </c>
       <c r="F10">
-        <v>30.20411664124876</v>
+        <v>29.24373940785541</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.33336010632339</v>
+        <v>29.06467809018887</v>
       </c>
       <c r="C11">
-        <v>30.39578168337907</v>
+        <v>29.00897496181435</v>
       </c>
       <c r="D11">
-        <v>29.33226069226073</v>
+        <v>29.09644345523726</v>
       </c>
       <c r="E11">
-        <v>31.31563068959044</v>
+        <v>29.05233989761939</v>
       </c>
       <c r="F11">
-        <v>30.38573167046581</v>
+        <v>29.31348518170425</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.30248163009508</v>
+        <v>29.12464532873633</v>
       </c>
       <c r="C12">
-        <v>30.57255626155507</v>
+        <v>29.06274046378838</v>
       </c>
       <c r="D12">
-        <v>29.4690079435979</v>
+        <v>29.16171758704321</v>
       </c>
       <c r="E12">
-        <v>31.58452936444269</v>
+        <v>29.11837293772532</v>
       </c>
       <c r="F12">
-        <v>30.5551646571932</v>
+        <v>29.38189452269855</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.27132508337889</v>
+        <v>29.18556851879184</v>
       </c>
       <c r="C13">
-        <v>30.73385121760207</v>
+        <v>29.11772725260165</v>
       </c>
       <c r="D13">
-        <v>29.61579590538663</v>
+        <v>29.22810135666775</v>
       </c>
       <c r="E13">
-        <v>31.81386709176792</v>
+        <v>29.1859182957245</v>
       </c>
       <c r="F13">
-        <v>30.70949596061674</v>
+        <v>29.44877733036628</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.23992973550845</v>
+        <v>29.24713015771405</v>
       </c>
       <c r="C14">
-        <v>30.87893195523305</v>
+        <v>29.17368148914396</v>
       </c>
       <c r="D14">
-        <v>29.77172733624902</v>
+        <v>29.29523761934605</v>
       </c>
       <c r="E14">
-        <v>31.99291960409571</v>
+        <v>29.25450129717595</v>
       </c>
       <c r="F14">
-        <v>30.8465988261278</v>
+        <v>29.51396500200847</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.20832765804873</v>
+        <v>29.30903011958575</v>
       </c>
       <c r="C15">
-        <v>31.0077086479713</v>
+        <v>29.23035783883843</v>
       </c>
       <c r="D15">
-        <v>29.93557486238941</v>
+        <v>29.3627905967274</v>
       </c>
       <c r="E15">
-        <v>32.1184536140585</v>
+        <v>29.3236775469034</v>
       </c>
       <c r="F15">
-        <v>30.96526010232972</v>
+        <v>29.57730950646334</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.17654535008213</v>
+        <v>29.37098547194444</v>
       </c>
       <c r="C16">
-        <v>31.12056177876353</v>
+        <v>29.28751967113076</v>
       </c>
       <c r="D16">
-        <v>30.10569741364965</v>
+        <v>29.43044538137162</v>
       </c>
       <c r="E16">
-        <v>32.19476261133822</v>
+        <v>29.39303263525114</v>
       </c>
       <c r="F16">
-        <v>31.06516096893679</v>
+        <v>29.63868208639856</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.14460484666705</v>
+        <v>29.43273020404322</v>
       </c>
       <c r="C17">
-        <v>31.21819128229493</v>
+        <v>29.34493924151164</v>
       </c>
       <c r="D17">
-        <v>30.27996601710618</v>
+        <v>29.49790736015915</v>
       </c>
       <c r="E17">
-        <v>32.23062511576433</v>
+        <v>29.46218209230931</v>
       </c>
       <c r="F17">
-        <v>31.1467406024848</v>
+        <v>29.69797136305941</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.11252464805693</v>
+        <v>29.49401511745083</v>
       </c>
       <c r="C18">
-        <v>31.30149535489888</v>
+        <v>29.40239785827728</v>
       </c>
       <c r="D18">
-        <v>30.45572155183875</v>
+        <v>29.56490160358585</v>
       </c>
       <c r="E18">
-        <v>32.2358044226068</v>
+        <v>29.5307710397642</v>
       </c>
       <c r="F18">
-        <v>31.21100050465766</v>
+        <v>29.75508140468819</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.08032048347946</v>
+        <v>29.55460743518036</v>
       </c>
       <c r="C19">
-        <v>31.37147799692326</v>
+        <v>29.45968603036545</v>
       </c>
       <c r="D19">
-        <v>30.62979392285298</v>
+        <v>29.63117226846595</v>
       </c>
       <c r="E19">
-        <v>32.21887263208168</v>
+        <v>29.59847363360266</v>
       </c>
       <c r="F19">
-        <v>31.25930460975555</v>
+        <v>29.80993087955918</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.0480058621559</v>
+        <v>29.61429030289593</v>
       </c>
       <c r="C20">
-        <v>31.42918147038316</v>
+        <v>29.5166035788419</v>
       </c>
       <c r="D20">
-        <v>30.79861162626113</v>
+        <v>29.69648202048316</v>
       </c>
       <c r="E20">
-        <v>32.18647229902177</v>
+        <v>29.66499240926095</v>
       </c>
       <c r="F20">
-        <v>31.29319994141631</v>
+        <v>29.86245227522487</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.01559244959518</v>
+        <v>29.67286284217701</v>
       </c>
       <c r="C21">
-        <v>31.47563989252883</v>
+        <v>29.57295973933908</v>
       </c>
       <c r="D21">
-        <v>30.95841759333123</v>
+        <v>29.7606114419666</v>
       </c>
       <c r="E21">
-        <v>32.14340649619147</v>
+        <v>29.73005740237971</v>
       </c>
       <c r="F21">
-        <v>31.31428445980722</v>
+        <v>29.91259068540001</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.98309036767639</v>
+        <v>29.73013907985243</v>
       </c>
       <c r="C22">
-        <v>31.51184879774005</v>
+        <v>29.62857323685911</v>
       </c>
       <c r="D22">
-        <v>31.10557775790565</v>
+        <v>29.8233584174731</v>
       </c>
       <c r="E22">
-        <v>32.09302159571163</v>
+        <v>29.79342526262095</v>
       </c>
       <c r="F22">
-        <v>31.32411208685129</v>
+        <v>29.96030244851038</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.95050845280253</v>
+        <v>29.78594803163097</v>
       </c>
       <c r="C23">
-        <v>31.5387466740599</v>
+        <v>29.68327231589458</v>
       </c>
       <c r="D23">
-        <v>31.23693180539042</v>
+        <v>29.88453749288438</v>
       </c>
       <c r="E23">
-        <v>32.03760834315454</v>
+        <v>29.85487806397753</v>
       </c>
       <c r="F23">
-        <v>31.32413439118247</v>
+        <v>30.00555402308419</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.91785447497716</v>
+        <v>29.84013293881469</v>
       </c>
       <c r="C24">
-        <v>31.55720515957944</v>
+        <v>29.73689475710293</v>
       </c>
       <c r="D24">
-        <v>31.35010763990079</v>
+        <v>29.94397925898609</v>
       </c>
       <c r="E24">
-        <v>31.97872606082949</v>
+        <v>29.91422220646351</v>
       </c>
       <c r="F24">
-        <v>31.31566953896793</v>
+        <v>30.04832111536065</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.8851352788612</v>
+        <v>29.89255094242687</v>
       </c>
       <c r="C25">
-        <v>31.56802509869523</v>
+        <v>29.78928788592327</v>
       </c>
       <c r="D25">
-        <v>31.44372162767858</v>
+        <v>30.00152967844627</v>
       </c>
       <c r="E25">
-        <v>31.91743660780168</v>
+        <v>29.97128724237635</v>
       </c>
       <c r="F25">
-        <v>31.29989063054639</v>
+        <v>30.08858787352064</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>27.85235702238754</v>
+        <v>29.94307257992812</v>
       </c>
       <c r="C26">
-        <v>31.57193629280298</v>
+        <v>29.84030852289408</v>
       </c>
       <c r="D26">
-        <v>31.51742015992067</v>
+        <v>30.05704950981525</v>
       </c>
       <c r="E26">
-        <v>31.85446705114876</v>
+        <v>30.02592465219741</v>
       </c>
       <c r="F26">
-        <v>31.27782665407601</v>
+        <v>30.12634605114921</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>27.8195251390667</v>
+        <v>29.99158122790492</v>
       </c>
       <c r="C27">
-        <v>31.56960012377992</v>
+        <v>29.88982294312977</v>
       </c>
       <c r="D27">
-        <v>31.57176899013496</v>
+        <v>30.1104135862658</v>
       </c>
       <c r="E27">
-        <v>31.79031908621742</v>
+        <v>30.07800655651255</v>
       </c>
       <c r="F27">
-        <v>31.25037047785494</v>
+        <v>30.16159421874291</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>27.78664453022201</v>
+        <v>30.03797262833323</v>
       </c>
       <c r="C28">
-        <v>31.56161381944442</v>
+        <v>29.93770675961323</v>
       </c>
       <c r="D28">
-        <v>31.60803907494272</v>
+        <v>30.16151018682786</v>
       </c>
       <c r="E28">
-        <v>31.72534199235426</v>
+        <v>30.12742443598978</v>
       </c>
       <c r="F28">
-        <v>31.21829163800128</v>
+        <v>30.19433694850304</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>27.75371959487047</v>
+        <v>30.08215429969909</v>
       </c>
       <c r="C29">
-        <v>31.54851507899424</v>
+        <v>29.98384480414552</v>
       </c>
       <c r="D29">
-        <v>31.6279534553363</v>
+        <v>30.21024036046004</v>
       </c>
       <c r="E29">
-        <v>31.65978132802612</v>
+        <v>30.1740878576067</v>
       </c>
       <c r="F29">
-        <v>31.18225003847974</v>
+        <v>30.22458437083582</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>27.7207542680824</v>
+        <v>30.1240449958605</v>
       </c>
       <c r="C30">
-        <v>31.53078696045239</v>
+        <v>30.02813099654287</v>
       </c>
       <c r="D30">
-        <v>31.63345084340567</v>
+        <v>30.25651730500415</v>
       </c>
       <c r="E30">
-        <v>31.59381143827127</v>
+        <v>30.21792320230276</v>
       </c>
       <c r="F30">
-        <v>31.14280957566315</v>
+        <v>30.25235112567928</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>27.68775212364569</v>
+        <v>30.16357419652503</v>
       </c>
       <c r="C31">
-        <v>31.50886301006331</v>
+        <v>30.07046819403216</v>
       </c>
       <c r="D31">
-        <v>31.62649835293596</v>
+        <v>30.30026572347486</v>
       </c>
       <c r="E31">
-        <v>31.52755734015925</v>
+        <v>30.25887240709447</v>
       </c>
       <c r="F31">
-        <v>31.10045125842288</v>
+        <v>30.27765644719932</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>27.65471640422041</v>
+        <v>30.20068152283474</v>
       </c>
       <c r="C32">
-        <v>31.4831322081761</v>
+        <v>30.11076799059218</v>
       </c>
       <c r="D32">
-        <v>31.60896338953401</v>
+        <v>30.34142119173557</v>
       </c>
       <c r="E32">
-        <v>31.46110955458802</v>
+        <v>30.29689176239603</v>
       </c>
       <c r="F32">
-        <v>31.05558508762813</v>
+        <v>30.30052290642808</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>27.6216500657545</v>
+        <v>30.23531622900288</v>
       </c>
       <c r="C33">
-        <v>31.45394350479566</v>
+        <v>30.14895052177415</v>
       </c>
       <c r="D33">
-        <v>31.58253935929675</v>
+        <v>30.37992953604452</v>
       </c>
       <c r="E33">
-        <v>31.3945342346918</v>
+        <v>30.33195073271502</v>
       </c>
       <c r="F33">
-        <v>31.00856050565327</v>
+        <v>30.32097674919151</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>27.58855581605857</v>
+        <v>30.26743665786469</v>
       </c>
       <c r="C34">
-        <v>31.42161000879711</v>
+        <v>30.18494425108406</v>
       </c>
       <c r="D34">
-        <v>31.54871286418311</v>
+        <v>30.41574621746088</v>
       </c>
       <c r="E34">
-        <v>31.32788011270821</v>
+        <v>30.36403080355081</v>
       </c>
       <c r="F34">
-        <v>30.95967550926126</v>
+        <v>30.33904677905637</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>27.5554361385579</v>
+        <v>30.29700972364723</v>
       </c>
       <c r="C35">
-        <v>31.38641286009649</v>
+        <v>30.21868572192576</v>
       </c>
       <c r="D35">
-        <v>31.50875901818781</v>
+        <v>30.4488357341305</v>
       </c>
       <c r="E35">
-        <v>31.2611835323662</v>
+        <v>30.39312440095518</v>
       </c>
       <c r="F35">
-        <v>30.90918451136605</v>
+        <v>30.354764516901</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>27.52229330517879</v>
+        <v>30.32401037292856</v>
       </c>
       <c r="C36">
-        <v>31.3486047003939</v>
+        <v>30.25011929929979</v>
       </c>
       <c r="D36">
-        <v>31.46375356614413</v>
+        <v>30.47917106144574</v>
       </c>
       <c r="E36">
-        <v>31.19447183132405</v>
+        <v>30.41923385646317</v>
       </c>
       <c r="F36">
-        <v>30.85730502123997</v>
+        <v>30.36816347458144</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>27.4891294126582</v>
+        <v>30.34842109269921</v>
       </c>
       <c r="C37">
-        <v>31.30841278052956</v>
+        <v>30.2791969085328</v>
       </c>
       <c r="D37">
-        <v>31.41459359796994</v>
+        <v>30.50673304225437</v>
       </c>
       <c r="E37">
-        <v>31.12776561258224</v>
+        <v>30.44237042079101</v>
       </c>
       <c r="F37">
-        <v>30.80422330320057</v>
+        <v>30.37927902257633</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>27.45594638883665</v>
+        <v>30.37023139890549</v>
       </c>
       <c r="C38">
-        <v>31.26604173459362</v>
+        <v>30.30587776443616</v>
       </c>
       <c r="D38">
-        <v>31.36202115159202</v>
+        <v>30.53150991019736</v>
       </c>
       <c r="E38">
-        <v>31.0610805358662</v>
+        <v>30.4625533117682</v>
       </c>
       <c r="F38">
-        <v>30.75009918492217</v>
+        <v>30.38814804788023</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>27.42274601646964</v>
+        <v>30.38943734339902</v>
       </c>
       <c r="C39">
-        <v>31.22167606744542</v>
+        <v>30.33012806683608</v>
       </c>
       <c r="D39">
-        <v>31.30664682812722</v>
+        <v>30.55349664829373</v>
       </c>
       <c r="E39">
-        <v>30.99442864482353</v>
+        <v>30.47980885834827</v>
       </c>
       <c r="F39">
-        <v>30.6950700739952</v>
+        <v>30.39480860530772</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>27.38952994274942</v>
+        <v>30.40604107738823</v>
       </c>
       <c r="C40">
-        <v>31.1754823450172</v>
+        <v>30.35192069918799</v>
       </c>
       <c r="D40">
-        <v>31.24897165329384</v>
+        <v>30.57269460036246</v>
       </c>
       <c r="E40">
-        <v>30.92781927066569</v>
+        <v>30.49416968505745</v>
       </c>
       <c r="F40">
-        <v>30.63925437073132</v>
+        <v>30.39929989432435</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>27.35629969899582</v>
+        <v>30.42005033568091</v>
       </c>
       <c r="C41">
-        <v>31.12761114103256</v>
+        <v>30.37123499014918</v>
       </c>
       <c r="D41">
-        <v>31.18940613220493</v>
+        <v>30.58911089438071</v>
       </c>
       <c r="E41">
-        <v>30.86125965909049</v>
+        <v>30.5056739442324</v>
       </c>
       <c r="F41">
-        <v>30.58275430340026</v>
+        <v>30.40166173166252</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>27.32305672346962</v>
+        <v>30.43147806259656</v>
       </c>
       <c r="C42">
-        <v>31.07819876151261</v>
+        <v>30.38805627810283</v>
       </c>
       <c r="D42">
-        <v>31.12828636887162</v>
+        <v>30.60275803071254</v>
       </c>
       <c r="E42">
-        <v>30.79475546585247</v>
+        <v>30.51436458646115</v>
       </c>
       <c r="F42">
-        <v>30.52565833522142</v>
+        <v>30.40193474476026</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>27.28980231458448</v>
+        <v>30.44034194685854</v>
       </c>
       <c r="C43">
-        <v>31.02736877630601</v>
+        <v>30.40237581625894</v>
       </c>
       <c r="D43">
-        <v>31.06588769287588</v>
+        <v>30.61365343848236</v>
       </c>
       <c r="E43">
-        <v>30.72831113557698</v>
+        <v>30.52028872344888</v>
       </c>
       <c r="F43">
-        <v>30.46804323702554</v>
+        <v>30.40015982188579</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>27.25653774781006</v>
+        <v>30.44666401316268</v>
       </c>
       <c r="C44">
-        <v>30.975233366197</v>
+        <v>30.41419018135015</v>
       </c>
       <c r="D44">
-        <v>31.00243605424211</v>
+        <v>30.62181901438944</v>
       </c>
       <c r="E44">
-        <v>30.66193023481978</v>
+        <v>30.52349702566757</v>
       </c>
       <c r="F44">
-        <v>30.40997578885442</v>
+        <v>30.39637831050544</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>27.22326417708832</v>
+        <v>30.45047027695676</v>
       </c>
       <c r="C45">
-        <v>30.92189451737019</v>
+        <v>30.4235012474464</v>
       </c>
       <c r="D45">
-        <v>30.93811715831274</v>
+        <v>30.6272807760762</v>
       </c>
       <c r="E45">
-        <v>30.59561561467923</v>
+        <v>30.52404316169251</v>
       </c>
       <c r="F45">
-        <v>30.35151417020041</v>
+        <v>30.39063158035492</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>27.18998267598487</v>
+        <v>30.45179029889534</v>
       </c>
       <c r="C46">
-        <v>30.86744506869355</v>
+        <v>30.43031565036728</v>
       </c>
       <c r="D46">
-        <v>30.87308394175876</v>
+        <v>30.63006841037246</v>
       </c>
       <c r="E46">
-        <v>30.52936952948333</v>
+        <v>30.52198327233886</v>
       </c>
       <c r="F46">
-        <v>30.29270916750329</v>
+        <v>30.3829611505561</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>27.15669430367205</v>
+        <v>30.45065690364641</v>
       </c>
       <c r="C47">
-        <v>30.81196966502406</v>
+        <v>30.43464458762277</v>
       </c>
       <c r="D47">
-        <v>30.80746269846876</v>
+        <v>30.63021497401711</v>
       </c>
       <c r="E47">
-        <v>30.46319378042677</v>
+        <v>30.51737552384359</v>
       </c>
       <c r="F47">
-        <v>30.23360523316034</v>
+        <v>30.37340837680444</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>27.12339997813439</v>
+        <v>30.44710580667331</v>
       </c>
       <c r="C48">
-        <v>30.755545633832</v>
+        <v>30.43650350452583</v>
       </c>
       <c r="D48">
-        <v>30.741358000196</v>
+        <v>30.62775648326455</v>
       </c>
       <c r="E48">
-        <v>30.39708981492728</v>
+        <v>30.51027968846314</v>
       </c>
       <c r="F48">
-        <v>30.1742413777959</v>
+        <v>30.36201452223068</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>27.09010062446435</v>
+        <v>30.44117527889635</v>
       </c>
       <c r="C49">
-        <v>30.69824367577781</v>
+        <v>30.4359117658728</v>
       </c>
       <c r="D49">
-        <v>30.67485665852662</v>
+        <v>30.62273166546982</v>
       </c>
       <c r="E49">
-        <v>30.33105878075409</v>
+        <v>30.50075675770665</v>
       </c>
       <c r="F49">
-        <v>30.11465190696823</v>
+        <v>30.3488205412565</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>27.05679709902827</v>
+        <v>30.43290590733282</v>
       </c>
       <c r="C50">
-        <v>30.64012851042145</v>
+        <v>30.43289239079935</v>
       </c>
       <c r="D50">
-        <v>30.60803095424738</v>
+        <v>30.61518156827442</v>
       </c>
       <c r="E50">
-        <v>30.26510166085461</v>
+        <v>30.48886858488865</v>
       </c>
       <c r="F50">
-        <v>30.05486704302536</v>
+        <v>30.33386711109986</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>27.0234901795532</v>
+        <v>30.422340229116</v>
       </c>
       <c r="C51">
-        <v>30.58125947152503</v>
+        <v>30.42747178857546</v>
       </c>
       <c r="D51">
-        <v>30.54094125715119</v>
+        <v>30.60514938583654</v>
       </c>
       <c r="E51">
-        <v>30.19921917306629</v>
+        <v>30.47467758914987</v>
       </c>
       <c r="F51">
-        <v>29.99491346451354</v>
+        <v>30.3171944949255</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>26.99018062000602</v>
+        <v>30.4095225359498</v>
       </c>
       <c r="C52">
-        <v>30.52169103162699</v>
+        <v>30.41967941045466</v>
       </c>
       <c r="D52">
-        <v>30.47363812993149</v>
+        <v>30.59268006575137</v>
       </c>
       <c r="E52">
-        <v>30.13341207163642</v>
+        <v>30.45824648086948</v>
       </c>
       <c r="F52">
-        <v>29.9348147823721</v>
+        <v>30.29884253093248</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>26.95687066026335</v>
+        <v>30.39449859660731</v>
       </c>
       <c r="C53">
-        <v>30.46159541728311</v>
+        <v>30.40954759712498</v>
       </c>
       <c r="D53">
-        <v>30.40616591071012</v>
+        <v>30.5778202079834</v>
       </c>
       <c r="E53">
-        <v>30.06768088856512</v>
+        <v>30.43963801052956</v>
       </c>
       <c r="F53">
-        <v>29.87459794845785</v>
+        <v>30.27885057209841</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>26.92356240894995</v>
+        <v>30.37731539205904</v>
       </c>
       <c r="C54">
-        <v>30.40112094130155</v>
+        <v>30.39711116669903</v>
       </c>
       <c r="D54">
-        <v>30.33856124866726</v>
+        <v>30.56061767735907</v>
       </c>
       <c r="E54">
-        <v>30.00202599308399</v>
+        <v>30.41891474066441</v>
       </c>
       <c r="F54">
-        <v>29.81428588305915</v>
+        <v>30.25725742820811</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>26.8902563846367</v>
+        <v>30.35802096695285</v>
       </c>
       <c r="C55">
-        <v>30.34028291918181</v>
+        <v>30.38240734447852</v>
       </c>
       <c r="D55">
-        <v>30.27085349231464</v>
+        <v>30.54112155209972</v>
       </c>
       <c r="E55">
-        <v>29.93644773509587</v>
+        <v>30.39613886267258</v>
       </c>
       <c r="F55">
-        <v>29.75389299287889</v>
+        <v>30.23410137619966</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>26.85695307992803</v>
+        <v>30.33666414801418</v>
       </c>
       <c r="C56">
-        <v>30.27909666440036</v>
+        <v>30.36547531010177</v>
       </c>
       <c r="D56">
-        <v>30.2030675727767</v>
+        <v>30.51938175966489</v>
       </c>
       <c r="E56">
-        <v>29.87094640123723</v>
+        <v>30.37137202961099</v>
       </c>
       <c r="F56">
-        <v>29.69343225915245</v>
+        <v>30.20942006260066</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>26.82365296379839</v>
+        <v>30.31329441355064</v>
       </c>
       <c r="C57">
-        <v>30.21757736327153</v>
+        <v>30.34635620809819</v>
       </c>
       <c r="D57">
-        <v>30.13522475806167</v>
+        <v>30.49544905828537</v>
       </c>
       <c r="E57">
-        <v>29.80552222606386</v>
+        <v>30.34467520492207</v>
       </c>
       <c r="F57">
-        <v>29.63291541673055</v>
+        <v>30.18325055908754</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>26.79035648110462</v>
+        <v>30.28796170697444</v>
       </c>
       <c r="C58">
-        <v>30.15573997174017</v>
+        <v>30.3250926580144</v>
       </c>
       <c r="D58">
-        <v>30.06734326163615</v>
+        <v>30.46937470115691</v>
       </c>
       <c r="E58">
-        <v>29.74017540121189</v>
+        <v>30.31610852837508</v>
       </c>
       <c r="F58">
-        <v>29.57235303712527</v>
+        <v>30.15562926269003</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>26.75706405492565</v>
+        <v>30.26071623283902</v>
       </c>
       <c r="C59">
-        <v>30.09359914237143</v>
+        <v>30.30172882195525</v>
       </c>
       <c r="D59">
-        <v>29.9994387303906</v>
+        <v>30.44121044829328</v>
       </c>
       <c r="E59">
-        <v>29.67490608312496</v>
+        <v>30.28573122546054</v>
       </c>
       <c r="F59">
-        <v>29.51175469762018</v>
+        <v>30.12659195504143</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>26.72377608918725</v>
+        <v>30.23160838149006</v>
       </c>
       <c r="C60">
-        <v>30.03116916436246</v>
+        <v>30.27630994762401</v>
       </c>
       <c r="D60">
-        <v>29.93152454791376</v>
+        <v>30.41100825400061</v>
       </c>
       <c r="E60">
-        <v>29.60971439784897</v>
+        <v>30.25360151073465</v>
       </c>
       <c r="F60">
-        <v>29.45112907329374</v>
+        <v>30.09617372309457</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>26.69049296971528</v>
+        <v>30.20068852386301</v>
       </c>
       <c r="C61">
-        <v>29.96846393560736</v>
+        <v>30.24888238084902</v>
       </c>
       <c r="D61">
-        <v>29.86361225014303</v>
+        <v>30.37882030810343</v>
       </c>
       <c r="E61">
-        <v>29.54460044582377</v>
+        <v>30.21977646441602</v>
       </c>
       <c r="F61">
-        <v>29.39048402356494</v>
+        <v>30.06440900892611</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>26.65721506492321</v>
+        <v>30.16800693054629</v>
       </c>
       <c r="C62">
-        <v>29.90549692601945</v>
+        <v>30.21949326918028</v>
       </c>
       <c r="D62">
-        <v>29.79571184782503</v>
+        <v>30.34469874447593</v>
       </c>
       <c r="E62">
-        <v>29.47956430650447</v>
+        <v>30.1843120499672</v>
       </c>
       <c r="F62">
-        <v>29.32982667811821</v>
+        <v>30.03133155407996</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>26.62394272704573</v>
+        <v>30.13361365617612</v>
       </c>
       <c r="C63">
-        <v>29.84228115429695</v>
+        <v>30.18819042492984</v>
       </c>
       <c r="D63">
-        <v>29.7278319944799</v>
+        <v>30.30869570434521</v>
       </c>
       <c r="E63">
-        <v>29.41460604282788</v>
+        <v>30.14726290888487</v>
       </c>
       <c r="F63">
-        <v>29.26916351678373</v>
+        <v>29.9969744362891</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>26.59067629379567</v>
+        <v>30.09755839577448</v>
       </c>
       <c r="C64">
-        <v>29.77882918004561</v>
+        <v>30.155022213352</v>
       </c>
       <c r="D64">
-        <v>29.65998018786555</v>
+        <v>30.27086306944464</v>
       </c>
       <c r="E64">
-        <v>29.34972570458212</v>
+        <v>30.10868254757424</v>
       </c>
       <c r="F64">
-        <v>29.20850043356809</v>
+        <v>29.96137003649822</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>26.5574160886313</v>
+        <v>30.05989045349039</v>
       </c>
       <c r="C65">
-        <v>29.71515310684642</v>
+        <v>30.12003729317078</v>
       </c>
       <c r="D65">
-        <v>29.59216291068739</v>
+        <v>30.23125253770512</v>
       </c>
       <c r="E65">
-        <v>29.28492332696158</v>
+        <v>30.06862303930577</v>
       </c>
       <c r="F65">
-        <v>29.14784279125545</v>
+        <v>29.92455006245219</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>26.52416242172254</v>
+        <v>30.0206586060615</v>
       </c>
       <c r="C66">
-        <v>29.65126458069566</v>
+        <v>30.08328464358202</v>
       </c>
       <c r="D66">
-        <v>29.52438582223176</v>
+        <v>30.18991538444785</v>
       </c>
       <c r="E66">
-        <v>29.22019894780944</v>
+        <v>30.02713528943137</v>
       </c>
       <c r="F66">
-        <v>29.08719548075878</v>
+        <v>29.88654553539931</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>26.49091559085307</v>
+        <v>29.97991105697372</v>
       </c>
       <c r="C67">
-        <v>29.58717479197841</v>
+        <v>30.04481322809892</v>
       </c>
       <c r="D67">
-        <v>29.45665387409419</v>
+        <v>30.14690254437807</v>
       </c>
       <c r="E67">
-        <v>29.15555258131264</v>
+        <v>29.98426875981338</v>
       </c>
       <c r="F67">
-        <v>29.02656296142518</v>
+        <v>29.8473868023528</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>26.45767588226788</v>
+        <v>29.93769537271782</v>
       </c>
       <c r="C68">
-        <v>29.5228944833117</v>
+        <v>30.00467211667641</v>
       </c>
       <c r="D68">
-        <v>29.38897140284607</v>
+        <v>30.10226440035943</v>
       </c>
       <c r="E68">
-        <v>29.09098422040876</v>
+        <v>29.94007167048961</v>
       </c>
       <c r="F68">
-        <v>28.96594930065161</v>
+        <v>29.80710353890766</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>26.42444356970285</v>
+        <v>29.89405839151371</v>
       </c>
       <c r="C69">
-        <v>29.4584339606997</v>
+        <v>29.96291011018968</v>
       </c>
       <c r="D69">
-        <v>29.32134220292177</v>
+        <v>30.05605086935568</v>
       </c>
       <c r="E69">
-        <v>29.02649386118976</v>
+        <v>29.89459083707158</v>
       </c>
       <c r="F69">
-        <v>28.90535821513393</v>
+        <v>29.76572475201989</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>26.3912189191254</v>
+        <v>29.84904621675785</v>
       </c>
       <c r="C70">
-        <v>29.39380310538765</v>
+        <v>29.91957592174396</v>
       </c>
       <c r="D70">
-        <v>29.25376959794239</v>
+        <v>30.00831121631255</v>
       </c>
       <c r="E70">
-        <v>28.96208150806697</v>
+        <v>29.8478717784205</v>
       </c>
       <c r="F70">
-        <v>28.84479310667043</v>
+        <v>29.72327879570431</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>26.35800218159558</v>
+        <v>29.80270413611014</v>
       </c>
       <c r="C71">
-        <v>29.32901138787619</v>
+        <v>29.87471779312839</v>
       </c>
       <c r="D71">
-        <v>29.18625650785414</v>
+        <v>29.95909414212716</v>
       </c>
       <c r="E71">
-        <v>28.89774714448412</v>
+        <v>29.79995864458018</v>
       </c>
       <c r="F71">
-        <v>28.78425709467374</v>
+        <v>29.67979336670325</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>26.32479360464579</v>
+        <v>29.75507659951082</v>
       </c>
       <c r="C72">
-        <v>29.2640678791376</v>
+        <v>29.82838370275167</v>
       </c>
       <c r="D72">
-        <v>29.11880549957513</v>
+        <v>29.90844762109741</v>
       </c>
       <c r="E72">
-        <v>28.83349076436539</v>
+        <v>29.75089429267691</v>
       </c>
       <c r="F72">
-        <v>28.72375304217251</v>
+        <v>29.63529552713807</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>26.29159342196436</v>
+        <v>29.70620719218093</v>
       </c>
       <c r="C73">
-        <v>29.19898125970177</v>
+        <v>29.78062101084227</v>
       </c>
       <c r="D73">
-        <v>29.05141885178616</v>
+        <v>29.8564189882376</v>
       </c>
       <c r="E73">
-        <v>28.76931235076947</v>
+        <v>29.70072023679864</v>
       </c>
       <c r="F73">
-        <v>28.66328357252106</v>
+        <v>29.58981170066805</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>26.25840186147734</v>
+        <v>29.65613858263279</v>
       </c>
       <c r="C74">
-        <v>29.13375984571677</v>
+        <v>29.73147662090685</v>
       </c>
       <c r="D74">
-        <v>28.98409856571518</v>
+        <v>29.8030547991906</v>
       </c>
       <c r="E74">
-        <v>28.70521188634587</v>
+        <v>29.64947673842056</v>
       </c>
       <c r="F74">
-        <v>28.60285109308856</v>
+        <v>29.54336769389056</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>26.22521914352108</v>
+        <v>29.60491253107331</v>
       </c>
       <c r="C75">
-        <v>29.06841159306335</v>
+        <v>29.680996761777</v>
       </c>
       <c r="D75">
-        <v>28.91684645532057</v>
+        <v>29.74840091380751</v>
       </c>
       <c r="E75">
-        <v>28.64118935029462</v>
+        <v>29.59720275345012</v>
       </c>
       <c r="F75">
-        <v>28.54245781611926</v>
+        <v>29.49598869690852</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>26.19204548036868</v>
+        <v>29.55256986538059</v>
       </c>
       <c r="C76">
-        <v>29.00294412130423</v>
+        <v>29.62922701036242</v>
       </c>
       <c r="D76">
-        <v>28.84966409288704</v>
+        <v>29.69250237832668</v>
       </c>
       <c r="E76">
-        <v>28.57724471841094</v>
+        <v>29.54393602793619</v>
       </c>
       <c r="F76">
-        <v>28.48210577412222</v>
+        <v>29.44769930192778</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>26.15888107735752</v>
+        <v>29.4991504457358</v>
       </c>
       <c r="C77">
-        <v>28.93736472146673</v>
+        <v>29.57621222858062</v>
       </c>
       <c r="D77">
-        <v>28.78255287334121</v>
+        <v>29.63540350361266</v>
       </c>
       <c r="E77">
-        <v>28.51337796493124</v>
+        <v>29.48971305882948</v>
       </c>
       <c r="F77">
-        <v>28.42179684540611</v>
+        <v>29.39852350779325</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>26.12572613399372</v>
+        <v>29.44469314724133</v>
       </c>
       <c r="C78">
-        <v>28.87168037303181</v>
+        <v>29.5219964810776</v>
       </c>
       <c r="D78">
-        <v>28.71551404821222</v>
+        <v>29.57714776713581</v>
       </c>
       <c r="E78">
-        <v>28.44958906365003</v>
+        <v>29.43456917081476</v>
       </c>
       <c r="F78">
-        <v>28.3615327475718</v>
+        <v>29.34848473607374</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>26.09258084179029</v>
+        <v>29.38923595040368</v>
       </c>
       <c r="C79">
-        <v>28.80589775418035</v>
+        <v>29.46662307589114</v>
       </c>
       <c r="D79">
-        <v>28.64854870716476</v>
+        <v>29.51777788520707</v>
       </c>
       <c r="E79">
-        <v>28.38587798233619</v>
+        <v>29.37853850455316</v>
       </c>
       <c r="F79">
-        <v>28.30131508737343</v>
+        <v>29.29760583863767</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>26.05944538751901</v>
+        <v>29.3328157217072</v>
       </c>
       <c r="C80">
-        <v>28.74002325746968</v>
+        <v>29.41013442356192</v>
       </c>
       <c r="D80">
-        <v>28.58165785227474</v>
+        <v>29.45733573335178</v>
       </c>
       <c r="E80">
-        <v>28.32224468935855</v>
+        <v>29.32165407130492</v>
       </c>
       <c r="F80">
-        <v>28.24114533621071</v>
+        <v>29.24590911165818</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>26.02631995129357</v>
+        <v>29.27546848964591</v>
       </c>
       <c r="C81">
-        <v>28.67406300133194</v>
+        <v>29.35257213785142</v>
       </c>
       <c r="D81">
-        <v>28.51484234821355</v>
+        <v>29.39586241280897</v>
       </c>
       <c r="E81">
-        <v>28.25868915750378</v>
+        <v>29.26394776148451</v>
       </c>
       <c r="F81">
-        <v>28.18102485431923</v>
+        <v>29.19341630533007</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>25.99320470777785</v>
+        <v>29.21722923265137</v>
       </c>
       <c r="C82">
-        <v>28.60802284353229</v>
+        <v>29.29397687106947</v>
       </c>
       <c r="D82">
-        <v>28.44810298967881</v>
+        <v>29.33339818579378</v>
       </c>
       <c r="E82">
-        <v>28.19521134863684</v>
+        <v>29.20545038962948</v>
       </c>
       <c r="F82">
-        <v>28.12095489305686</v>
+        <v>29.14014863636104</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>25.96009982642946</v>
+        <v>29.15813193523514</v>
       </c>
       <c r="C83">
-        <v>28.54190839336075</v>
+        <v>29.23438844280858</v>
       </c>
       <c r="D83">
-        <v>28.38144048263122</v>
+        <v>29.2699825344985</v>
       </c>
       <c r="E83">
-        <v>28.13181122623309</v>
+        <v>29.14619170977668</v>
       </c>
       <c r="F83">
-        <v>28.06093661148296</v>
+        <v>29.08612679913769</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>25.92700547169549</v>
+        <v>29.09820973973041</v>
       </c>
       <c r="C84">
-        <v>28.47572502279519</v>
+        <v>29.17384567596174</v>
       </c>
       <c r="D84">
-        <v>28.31485546551901</v>
+        <v>29.205654112267</v>
       </c>
       <c r="E84">
-        <v>28.06848875816492</v>
+        <v>29.08620045899718</v>
       </c>
       <c r="F84">
-        <v>28.00097108154784</v>
+        <v>29.03137097690853</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>25.89392180323397</v>
+        <v>29.03749471003192</v>
       </c>
       <c r="C85">
-        <v>28.40947787819129</v>
+        <v>29.11238653109243</v>
       </c>
       <c r="D85">
-        <v>28.24834850462535</v>
+        <v>29.14045079364325</v>
       </c>
       <c r="E85">
-        <v>28.005243910316</v>
+        <v>29.02550437483904</v>
       </c>
       <c r="F85">
-        <v>27.94105929973207</v>
+        <v>28.97590085303692</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>25.86084800529447</v>
+        <v>28.97601805779667</v>
       </c>
       <c r="C86">
-        <v>28.34315414514939</v>
+        <v>29.05004796096669</v>
       </c>
       <c r="D86">
-        <v>28.1819201030346</v>
+        <v>29.07440963922584</v>
       </c>
       <c r="E86">
-        <v>27.94207664787548</v>
+        <v>28.9641302355427</v>
       </c>
       <c r="F86">
-        <v>27.88120200570631</v>
+        <v>28.91973562228207</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>25.82778328859926</v>
+        <v>28.91381003497829</v>
       </c>
       <c r="C87">
-        <v>28.27674216220091</v>
+        <v>28.98686602594922</v>
       </c>
       <c r="D87">
-        <v>28.11557071334581</v>
+        <v>29.00756693742408</v>
       </c>
       <c r="E87">
-        <v>27.87898693466166</v>
+        <v>28.9021038821464</v>
       </c>
       <c r="F87">
-        <v>27.82139983978973</v>
+        <v>28.86289400236173</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>25.79472785055387</v>
+        <v>28.85089997149854</v>
       </c>
       <c r="C88">
-        <v>28.21024833441502</v>
+        <v>28.92287579759144</v>
       </c>
       <c r="D88">
-        <v>28.04930074722476</v>
+        <v>28.93995818018623</v>
       </c>
       <c r="E88">
-        <v>27.81597473419067</v>
+        <v>28.83945025138448</v>
       </c>
       <c r="F88">
-        <v>27.76165362387236</v>
+        <v>28.80539424483605</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>25.76168188512652</v>
+        <v>28.78731632241234</v>
       </c>
       <c r="C89">
-        <v>28.1436790322198</v>
+        <v>28.85811142172506</v>
       </c>
       <c r="D89">
-        <v>27.98311057268549</v>
+        <v>28.8716180948559</v>
       </c>
       <c r="E89">
-        <v>27.75304000960947</v>
+        <v>28.77619340404563</v>
       </c>
       <c r="F89">
-        <v>27.70196410449774</v>
+        <v>28.74725414502893</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>25.72864558034752</v>
+        <v>28.7230866230482</v>
       </c>
       <c r="C90">
-        <v>28.07704026601307</v>
+        <v>28.79260609138704</v>
       </c>
       <c r="D90">
-        <v>27.91700052264079</v>
+        <v>28.80258063984265</v>
       </c>
       <c r="E90">
-        <v>27.69018272379659</v>
+        <v>28.71235655074541</v>
       </c>
       <c r="F90">
-        <v>27.64233201970485</v>
+        <v>28.68849105593221</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>25.69561911945575</v>
+        <v>28.65823756739335</v>
       </c>
       <c r="C91">
-        <v>28.01033772124247</v>
+        <v>28.72639205441627</v>
       </c>
       <c r="D91">
-        <v>27.85097089711941</v>
+        <v>28.73287901629953</v>
       </c>
       <c r="E91">
-        <v>27.62740283941696</v>
+        <v>28.6479620843015</v>
       </c>
       <c r="F91">
-        <v>27.58275805680665</v>
+        <v>28.6291218956091</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>25.66260268088479</v>
+        <v>28.59279497531003</v>
       </c>
       <c r="C92">
-        <v>27.94357680847805</v>
+        <v>28.65950063791887</v>
       </c>
       <c r="D92">
-        <v>27.78502196696761</v>
+        <v>28.66254567190873</v>
       </c>
       <c r="E92">
-        <v>27.56470031892078</v>
+        <v>28.58303160130536</v>
       </c>
       <c r="F92">
-        <v>27.52324284554749</v>
+        <v>28.56916315568184</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>25.62959643871143</v>
+        <v>28.52678382980488</v>
       </c>
       <c r="C93">
-        <v>27.87676272314944</v>
+        <v>28.59196222573211</v>
       </c>
       <c r="D93">
-        <v>27.71915397115332</v>
+        <v>28.59161230967385</v>
       </c>
       <c r="E93">
-        <v>27.50207512458162</v>
+        <v>28.51758593549632</v>
       </c>
       <c r="F93">
-        <v>27.46378696414059</v>
+        <v>28.50863092047596</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>25.59660056260516</v>
+        <v>28.46022831897861</v>
       </c>
       <c r="C94">
-        <v>27.80990034447282</v>
+        <v>28.52380630905961</v>
       </c>
       <c r="D94">
-        <v>27.65336712828946</v>
+        <v>28.52010989322044</v>
       </c>
       <c r="E94">
-        <v>27.43952721853475</v>
+        <v>28.45164517696465</v>
       </c>
       <c r="F94">
-        <v>27.40439094808063</v>
+        <v>28.44754086675706</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>25.56361521827858</v>
+        <v>28.39315180032555</v>
       </c>
       <c r="C95">
-        <v>27.74299432533095</v>
+        <v>28.45506145298568</v>
       </c>
       <c r="D95">
-        <v>27.58766163566242</v>
+        <v>28.44806865389025</v>
       </c>
       <c r="E95">
-        <v>27.37705656280363</v>
+        <v>28.38522870538223</v>
       </c>
       <c r="F95">
-        <v>27.34505529463173</v>
+        <v>28.38590827627868</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>25.53064056777371</v>
+        <v>28.32557687902531</v>
       </c>
       <c r="C96">
-        <v>27.6760491318068</v>
+        <v>28.38575535666311</v>
       </c>
       <c r="D96">
-        <v>27.52203766878787</v>
+        <v>28.37551809541289</v>
       </c>
       <c r="E96">
-        <v>27.31466311930031</v>
+        <v>28.31835520672732</v>
       </c>
       <c r="F96">
-        <v>27.28578046655287</v>
+        <v>28.32374805385619</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>25.49767676906357</v>
+        <v>28.25752538534105</v>
       </c>
       <c r="C97">
-        <v>27.60906895797417</v>
+        <v>28.31591482071584</v>
       </c>
       <c r="D97">
-        <v>27.45649539164086</v>
+        <v>28.30248699825952</v>
       </c>
       <c r="E97">
-        <v>27.2523468499745</v>
+        <v>28.25104270661865</v>
       </c>
       <c r="F97">
-        <v>27.22656688306613</v>
+        <v>28.26107472265442</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>25.46472397685272</v>
+        <v>28.18901840897461</v>
       </c>
       <c r="C98">
-        <v>27.54205789512487</v>
+        <v>28.24556580688208</v>
       </c>
       <c r="D98">
-        <v>27.39103494075235</v>
+        <v>28.22900342030619</v>
       </c>
       <c r="E98">
-        <v>27.19010771663719</v>
+        <v>28.18330858411661</v>
       </c>
       <c r="F98">
-        <v>27.1674149598631</v>
+        <v>28.19790244351307</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>25.43178234233008</v>
+        <v>28.12007632508397</v>
       </c>
       <c r="C99">
-        <v>27.47501974233941</v>
+        <v>28.17473341269483</v>
       </c>
       <c r="D99">
-        <v>27.32565642771342</v>
+        <v>28.15509470020588</v>
       </c>
       <c r="E99">
-        <v>27.1279456811802</v>
+        <v>28.11516960520525</v>
       </c>
       <c r="F99">
-        <v>27.10832505908455</v>
+        <v>28.13424502598789</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>25.39885201328475</v>
+        <v>28.05071879891454</v>
       </c>
       <c r="C100">
-        <v>27.40795823952263</v>
+        <v>28.10344192526015</v>
       </c>
       <c r="D100">
-        <v>27.26035998980598</v>
+        <v>28.08078745511778</v>
       </c>
       <c r="E100">
-        <v>27.06586070542362</v>
+        <v>28.04664193400263</v>
       </c>
       <c r="F100">
-        <v>27.04929754926078</v>
+        <v>28.07011592261312</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>25.3659331344602</v>
+        <v>27.98096481425334</v>
       </c>
       <c r="C101">
-        <v>27.34087686679889</v>
+        <v>28.03171480667508</v>
       </c>
       <c r="D101">
-        <v>27.19514574215339</v>
+        <v>28.00610757904989</v>
       </c>
       <c r="E101">
-        <v>27.00385275119223</v>
+        <v>27.97774116578876</v>
       </c>
       <c r="F101">
-        <v>26.99033274486246</v>
+        <v>28.00552825611534</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>25.33302584681651</v>
+        <v>27.91083268987913</v>
       </c>
       <c r="C102">
-        <v>27.27377903505819</v>
+        <v>27.95957473542041</v>
       </c>
       <c r="D102">
-        <v>27.13001376849579</v>
+        <v>27.9310802416094</v>
       </c>
       <c r="E102">
-        <v>26.94192178038288</v>
+        <v>27.90848233638987</v>
       </c>
       <c r="F102">
-        <v>26.93143095407841</v>
+        <v>27.94049481974035</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>25.30013028941338</v>
+        <v>27.84034009825418</v>
       </c>
       <c r="C103">
-        <v>27.20666794351803</v>
+        <v>27.88704361080424</v>
       </c>
       <c r="D103">
-        <v>27.06496415586228</v>
+        <v>27.85572988210921</v>
       </c>
       <c r="E103">
-        <v>26.88006775484017</v>
+        <v>27.83887995410362</v>
       </c>
       <c r="F103">
-        <v>26.87259245118431</v>
+        <v>27.87502807628779</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>25.26724659690278</v>
+        <v>27.76950408364747</v>
       </c>
       <c r="C104">
-        <v>27.13954670575368</v>
+        <v>27.81414257660088</v>
       </c>
       <c r="D104">
-        <v>26.99999696990972</v>
+        <v>27.7800802035096</v>
       </c>
       <c r="E104">
-        <v>26.81829063654324</v>
+        <v>27.76894800774929</v>
       </c>
       <c r="F104">
-        <v>26.81381749821123</v>
+        <v>27.80914018591347</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>25.23437490201227</v>
+        <v>27.69834108327284</v>
       </c>
       <c r="C105">
-        <v>27.07241825919488</v>
+        <v>27.74089204023305</v>
       </c>
       <c r="D105">
-        <v>26.93511227751526</v>
+        <v>27.70415416757745</v>
       </c>
       <c r="E105">
-        <v>26.75659038746092</v>
+        <v>27.69869999724882</v>
       </c>
       <c r="F105">
-        <v>26.75510633315274</v>
+        <v>27.74284300081531</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>25.20151533466938</v>
+        <v>27.62686694153693</v>
       </c>
       <c r="C106">
-        <v>27.00528545429177</v>
+        <v>27.66731168761978</v>
       </c>
       <c r="D106">
-        <v>26.87031012947832</v>
+        <v>27.62797398524677</v>
       </c>
       <c r="E106">
-        <v>26.69496696967222</v>
+        <v>27.62814894044973</v>
       </c>
       <c r="F106">
-        <v>26.69645918592292</v>
+        <v>27.67614806882592</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>25.16866802137781</v>
+        <v>27.55509693320647</v>
       </c>
       <c r="C107">
-        <v>26.93815098610437</v>
+        <v>27.59342050756458</v>
       </c>
       <c r="D107">
-        <v>26.80559057965269</v>
+        <v>27.5515611079588</v>
       </c>
       <c r="E107">
-        <v>26.6334203453112</v>
+        <v>27.55730740239402</v>
       </c>
       <c r="F107">
-        <v>26.63787626309627</v>
+        <v>27.60906665813903</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>25.13583308731079</v>
+        <v>27.48304577788031</v>
       </c>
       <c r="C108">
-        <v>26.8710174720419</v>
+        <v>27.51923680509906</v>
       </c>
       <c r="D108">
-        <v>26.74095367097048</v>
+        <v>27.47493622066737</v>
       </c>
       <c r="E108">
-        <v>26.57195047659606</v>
+        <v>27.48618750095441</v>
       </c>
       <c r="F108">
-        <v>26.57935776478047</v>
+        <v>27.54160975006081</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>25.10301065374009</v>
+        <v>27.41072765604666</v>
       </c>
       <c r="C109">
-        <v>26.80388739325712</v>
+        <v>27.44477822556018</v>
       </c>
       <c r="D109">
-        <v>26.67639944530038</v>
+        <v>27.39811923159027</v>
       </c>
       <c r="E109">
-        <v>26.51055732583942</v>
+        <v>27.41480093479381</v>
       </c>
       <c r="F109">
-        <v>26.5209038725631</v>
+        <v>27.47378804669161</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>25.07020084052529</v>
+        <v>27.33815623429841</v>
       </c>
       <c r="C110">
-        <v>26.73676318086111</v>
+        <v>27.37006176945352</v>
       </c>
       <c r="D110">
-        <v>26.61192793578192</v>
+        <v>27.32112926468342</v>
       </c>
       <c r="E110">
-        <v>26.44924085543218</v>
+        <v>27.34315898798576</v>
       </c>
       <c r="F110">
-        <v>26.46251475910058</v>
+        <v>27.40561199078262</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>25.03740376455504</v>
+        <v>27.26534466749185</v>
       </c>
       <c r="C111">
-        <v>26.66964710648145</v>
+        <v>27.29510381372503</v>
       </c>
       <c r="D111">
-        <v>26.54753917245533</v>
+        <v>27.24398465157319</v>
       </c>
       <c r="E111">
-        <v>26.38800102787856</v>
+        <v>27.27127255656747</v>
       </c>
       <c r="F111">
-        <v>26.40419058273445</v>
+        <v>27.33709175768963</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>25.00461954037835</v>
+        <v>27.19230563239902</v>
       </c>
       <c r="C112">
-        <v>26.60254133666696</v>
+        <v>27.21992012967619</v>
       </c>
       <c r="D112">
-        <v>26.48323318297122</v>
+        <v>27.16670292596145</v>
       </c>
       <c r="E112">
-        <v>26.32683780578941</v>
+        <v>27.19915215237114</v>
       </c>
       <c r="F112">
-        <v>26.34593149227167</v>
+        <v>27.2682372682235</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>24.97184828067599</v>
+        <v>27.11905133251883</v>
       </c>
       <c r="C113">
-        <v>26.53544807610883</v>
+        <v>27.14452590022843</v>
       </c>
       <c r="D113">
-        <v>26.41900998485252</v>
+        <v>27.08930081961359</v>
       </c>
       <c r="E113">
-        <v>26.26575115190874</v>
+        <v>27.12680792808656</v>
       </c>
       <c r="F113">
-        <v>26.28773762680513</v>
+        <v>27.199058201567</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>24.93909009517848</v>
+        <v>27.04559351192063</v>
       </c>
       <c r="C114">
-        <v>26.46836931778253</v>
+        <v>27.06893574095845</v>
       </c>
       <c r="D114">
-        <v>26.35486959501156</v>
+        <v>27.01179426022116</v>
       </c>
       <c r="E114">
-        <v>26.2047410290066</v>
+        <v>27.05424968045939</v>
       </c>
       <c r="F114">
-        <v>26.22960911617435</v>
+        <v>27.12956398766799</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>24.90634509224754</v>
+        <v>26.97194348480531</v>
       </c>
       <c r="C115">
-        <v>26.40130696420074</v>
+        <v>26.99316371409898</v>
       </c>
       <c r="D115">
-        <v>26.29081203128176</v>
+        <v>26.93419837165911</v>
       </c>
       <c r="E115">
-        <v>26.14380739995921</v>
+        <v>26.98148687386712</v>
       </c>
       <c r="F115">
-        <v>26.17154607638346</v>
+        <v>27.0597638257833</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>24.87361337732027</v>
+        <v>26.89811212831869</v>
       </c>
       <c r="C116">
-        <v>26.33426289966921</v>
+        <v>26.91722335051033</v>
       </c>
       <c r="D116">
-        <v>26.22683730022026</v>
+        <v>26.8565274771738</v>
       </c>
       <c r="E116">
-        <v>26.08295022798472</v>
+        <v>26.90852864295828</v>
       </c>
       <c r="F116">
-        <v>26.11354861791589</v>
+        <v>26.98966668919745</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>24.84089505415031</v>
+        <v>26.8241099206263</v>
       </c>
       <c r="C117">
-        <v>26.26723899463796</v>
+        <v>26.84112766335178</v>
       </c>
       <c r="D117">
-        <v>26.16294540925551</v>
+        <v>26.77879510587905</v>
       </c>
       <c r="E117">
-        <v>26.02216947623792</v>
+        <v>26.83538381479964</v>
       </c>
       <c r="F117">
-        <v>26.05561685126686</v>
+        <v>26.91928131870759</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>24.80819022444604</v>
+        <v>26.74994693988969</v>
       </c>
       <c r="C118">
-        <v>26.20023692287319</v>
+        <v>26.76488916748503</v>
       </c>
       <c r="D118">
-        <v>26.09913636665388</v>
+        <v>26.70101400263325</v>
       </c>
       <c r="E118">
-        <v>25.96146510789961</v>
+        <v>26.76206091101189</v>
       </c>
       <c r="F118">
-        <v>25.99775086346895</v>
+        <v>26.8486162474608</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>24.77549898755711</v>
+        <v>26.67563287795711</v>
       </c>
       <c r="C119">
-        <v>26.13325833325481</v>
+        <v>26.6885198956389</v>
       </c>
       <c r="D119">
-        <v>26.03541017401897</v>
+        <v>26.62319614122686</v>
       </c>
       <c r="E119">
-        <v>25.90083708627195</v>
+        <v>26.68856816854207</v>
       </c>
       <c r="F119">
-        <v>25.93995073705736</v>
+        <v>26.77767979533951</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>24.74282144140958</v>
+        <v>26.60117706760897</v>
       </c>
       <c r="C120">
-        <v>26.06630488970409</v>
+        <v>26.61203141341469</v>
       </c>
       <c r="D120">
-        <v>25.97176683248193</v>
+        <v>26.54535274080638</v>
       </c>
       <c r="E120">
-        <v>25.84028537504335</v>
+        <v>26.61491354136799</v>
       </c>
       <c r="F120">
-        <v>25.88221656740893</v>
+        <v>26.70648006947082</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>24.71015768137339</v>
+        <v>26.52658847315802</v>
       </c>
       <c r="C121">
-        <v>25.99937812046882</v>
+        <v>26.53543483862032</v>
       </c>
       <c r="D121">
-        <v>25.90820634110821</v>
+        <v>26.46749428546546</v>
       </c>
       <c r="E121">
-        <v>25.77980993802081</v>
+        <v>26.54110471993433</v>
       </c>
       <c r="F121">
-        <v>25.82454842124162</v>
+        <v>26.6350249850667</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>24.67750780141182</v>
+        <v>26.45187572764123</v>
       </c>
       <c r="C122">
-        <v>25.9324795284562</v>
+        <v>26.45874085161496</v>
       </c>
       <c r="D122">
-        <v>25.84472869839648</v>
+        <v>26.38963054681892</v>
       </c>
       <c r="E122">
-        <v>25.71941073881228</v>
+        <v>26.46714913250051</v>
       </c>
       <c r="F122">
-        <v>25.76694636530484</v>
+        <v>26.56332225921512</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>24.64487189335534</v>
+        <v>26.37704712849283</v>
       </c>
       <c r="C123">
-        <v>25.86561055055652</v>
+        <v>26.38195971765725</v>
       </c>
       <c r="D123">
-        <v>25.78133390050722</v>
+        <v>26.31177060936622</v>
       </c>
       <c r="E123">
-        <v>25.6590877412733</v>
+        <v>26.39305396328328</v>
       </c>
       <c r="F123">
-        <v>25.70941046746924</v>
+        <v>26.49137941423569</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>24.61225004718436</v>
+        <v>26.30211065040933</v>
       </c>
       <c r="C124">
-        <v>25.79877257555253</v>
+        <v>26.30510129310541</v>
       </c>
       <c r="D124">
-        <v>25.71802193997739</v>
+        <v>26.2339228994597</v>
       </c>
       <c r="E124">
-        <v>25.5988409095067</v>
+        <v>26.3188261535037</v>
       </c>
       <c r="F124">
-        <v>25.65194078779322</v>
+        <v>26.41920379464137</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>24.57964235134839</v>
+        <v>26.22707397017172</v>
       </c>
       <c r="C125">
-        <v>25.73196696308458</v>
+        <v>26.22817504982017</v>
       </c>
       <c r="D125">
-        <v>25.654792811004</v>
+        <v>26.15609521180901</v>
       </c>
       <c r="E125">
-        <v>25.53867020793352</v>
+        <v>26.24447241829524</v>
       </c>
       <c r="F125">
-        <v>25.59453738047523</v>
+        <v>26.34680256072586</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>24.54704889209768</v>
+        <v>26.15194445558555</v>
       </c>
       <c r="C126">
-        <v>25.66519501778661</v>
+        <v>26.15119007765416</v>
       </c>
       <c r="D126">
-        <v>25.59164650516723</v>
+        <v>26.07829474512504</v>
       </c>
       <c r="E126">
-        <v>25.47857560076643</v>
+        <v>26.16999924748664</v>
       </c>
       <c r="F126">
-        <v>25.53720029590214</v>
+        <v>26.27418269528981</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>24.51446975445559</v>
+        <v>26.07672920071363</v>
       </c>
       <c r="C127">
-        <v>25.5984579561729</v>
+        <v>26.07415511060552</v>
       </c>
       <c r="D127">
-        <v>25.52858301148211</v>
+        <v>26.00052812341965</v>
       </c>
       <c r="E127">
-        <v>25.4185570524971</v>
+        <v>26.09541292063094</v>
       </c>
       <c r="F127">
-        <v>25.47992957938327</v>
+        <v>26.20135101587216</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>24.48190502126441</v>
+        <v>26.00143501961858</v>
       </c>
       <c r="C128">
-        <v>25.53175700383412</v>
+        <v>25.99707852675357</v>
       </c>
       <c r="D128">
-        <v>25.4656023193182</v>
+        <v>25.92280144376476</v>
       </c>
       <c r="E128">
-        <v>25.35861452777114</v>
+        <v>26.02071950520777</v>
       </c>
       <c r="F128">
-        <v>25.42272527546757</v>
+        <v>26.12831416857535</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>24.44935477400758</v>
+        <v>25.9260684583244</v>
       </c>
       <c r="C129">
-        <v>25.46509332877969</v>
+        <v>25.91996837384396</v>
       </c>
       <c r="D129">
-        <v>25.40270441641833</v>
+        <v>25.84512030330848</v>
       </c>
       <c r="E129">
-        <v>25.29874799142586</v>
+        <v>25.94592487992265</v>
       </c>
       <c r="F129">
-        <v>25.36558742423184</v>
+        <v>26.05507863860557</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>24.41681909256106</v>
+        <v>25.85063581626191</v>
       </c>
       <c r="C130">
-        <v>25.39846804474006</v>
+        <v>25.84283237269904</v>
       </c>
       <c r="D130">
-        <v>25.339889289577</v>
+        <v>25.76748983125313</v>
       </c>
       <c r="E130">
-        <v>25.23895740839984</v>
+        <v>25.87103473292224</v>
       </c>
       <c r="F130">
-        <v>25.30851605664709</v>
+        <v>25.98165075700157</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>24.38429805481181</v>
+        <v>25.77514313577998</v>
       </c>
       <c r="C131">
-        <v>25.33188223332361</v>
+        <v>25.76567793047192</v>
       </c>
       <c r="D131">
-        <v>25.27715692457728</v>
+        <v>25.68991472013381</v>
       </c>
       <c r="E131">
-        <v>25.17924274380934</v>
+        <v>25.79605454991555</v>
       </c>
       <c r="F131">
-        <v>25.25151120680944</v>
+        <v>25.90803669511259</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>24.35179173700762</v>
+        <v>25.6995962334223</v>
       </c>
       <c r="C132">
-        <v>25.26533694195652</v>
+        <v>25.68851215257076</v>
       </c>
       <c r="D132">
-        <v>25.21450730647147</v>
+        <v>25.61239925802629</v>
       </c>
       <c r="E132">
-        <v>25.11960396293032</v>
+        <v>25.72098966733865</v>
       </c>
       <c r="F132">
-        <v>25.19457290377308</v>
+        <v>25.83424247933662</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>24.31930021432025</v>
+        <v>25.6240006932968</v>
       </c>
       <c r="C133">
-        <v>25.19883318057283</v>
+        <v>25.61134185342555</v>
       </c>
       <c r="D133">
-        <v>25.15194041976572</v>
+        <v>25.53494736008837</v>
       </c>
       <c r="E133">
-        <v>25.06004103104628</v>
+        <v>25.64584524742984</v>
       </c>
       <c r="F133">
-        <v>25.13770117159321</v>
+        <v>25.76027399136768</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>24.28682355995532</v>
+        <v>25.54836187803319</v>
       </c>
       <c r="C134">
-        <v>25.13237192763225</v>
+        <v>25.53417356723192</v>
       </c>
       <c r="D134">
-        <v>25.08945624810135</v>
+        <v>25.45756259856569</v>
       </c>
       <c r="E134">
-        <v>25.00055391376656</v>
+        <v>25.5706262547655</v>
       </c>
       <c r="F134">
-        <v>25.08089603266193</v>
+        <v>25.68613696516874</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>24.25436184573339</v>
+        <v>25.47268494670878</v>
       </c>
       <c r="C135">
-        <v>25.06595412638811</v>
+        <v>25.45701355666853</v>
       </c>
       <c r="D135">
-        <v>25.02705477466618</v>
+        <v>25.38024823020121</v>
       </c>
       <c r="E135">
-        <v>24.94114257679731</v>
+        <v>25.4953375364537</v>
       </c>
       <c r="F135">
-        <v>25.02415750667533</v>
+        <v>25.61183700331386</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>24.22191514205668</v>
+        <v>25.39697484538184</v>
       </c>
       <c r="C136">
-        <v>24.99958069104344</v>
+        <v>25.37986782282987</v>
       </c>
       <c r="D136">
-        <v>24.96473598220564</v>
+        <v>25.30300722216948</v>
       </c>
       <c r="E136">
-        <v>24.88180698600074</v>
+        <v>25.41998377873626</v>
       </c>
       <c r="F136">
-        <v>24.96748561072611</v>
+        <v>25.53737957255515</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>24.18948351789578</v>
+        <v>25.32123633449413</v>
       </c>
       <c r="C137">
-        <v>24.9332525045746</v>
+        <v>25.30274211280613</v>
       </c>
       <c r="D137">
-        <v>24.90249985311455</v>
+        <v>25.22584227710773</v>
       </c>
       <c r="E137">
-        <v>24.82254710732352</v>
+        <v>25.34456948746561</v>
       </c>
       <c r="F137">
-        <v>24.91088035966414</v>
+        <v>25.46277000474847</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>24.15706704062733</v>
+        <v>25.2454739821324</v>
       </c>
       <c r="C138">
-        <v>24.86697042515175</v>
+        <v>25.22564192709856</v>
       </c>
       <c r="D138">
-        <v>24.84034636836843</v>
+        <v>25.14875585665886</v>
       </c>
       <c r="E138">
-        <v>24.76336290691959</v>
+        <v>25.26909906204266</v>
       </c>
       <c r="F138">
-        <v>24.85434176578826</v>
+        <v>25.38801351024509</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>24.12466577634117</v>
+        <v>25.1696921740179</v>
       </c>
       <c r="C139">
-        <v>24.80073528518875</v>
+        <v>25.1485725283091</v>
       </c>
       <c r="D139">
-        <v>24.77827550728885</v>
+        <v>25.07175020325463</v>
       </c>
       <c r="E139">
-        <v>24.70425435109493</v>
+        <v>25.19357675640856</v>
       </c>
       <c r="F139">
-        <v>24.79786983940262</v>
+        <v>25.31311517327443</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>24.09227978969994</v>
+        <v>25.09389512822972</v>
       </c>
       <c r="C140">
-        <v>24.73454787884861</v>
+        <v>25.07153894591513</v>
       </c>
       <c r="D140">
-        <v>24.71628725229198</v>
+        <v>24.99482736021625</v>
       </c>
       <c r="E140">
-        <v>24.64522140629742</v>
+        <v>25.11800666950115</v>
       </c>
       <c r="F140">
-        <v>24.74146458848826</v>
+        <v>25.23807995501383</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>24.0599091439018</v>
+        <v>25.01808688702215</v>
       </c>
       <c r="C141">
-        <v>24.66840897019387</v>
+        <v>24.99454598318944</v>
       </c>
       <c r="D141">
-        <v>24.65438158426267</v>
+        <v>24.91798919002045</v>
       </c>
       <c r="E141">
-        <v>24.58626403913994</v>
+        <v>25.04239279470577</v>
       </c>
       <c r="F141">
-        <v>24.68512601991773</v>
+        <v>25.16291270395238</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>24.02755390084135</v>
+        <v>24.94227134031432</v>
       </c>
       <c r="C142">
-        <v>24.60231932340967</v>
+        <v>24.91759822265799</v>
       </c>
       <c r="D142">
-        <v>24.59255848404993</v>
+        <v>24.84123739145835</v>
       </c>
       <c r="E142">
-        <v>24.52738221638604</v>
+        <v>24.96673899643704</v>
       </c>
       <c r="F142">
-        <v>24.6288541388558</v>
+        <v>25.08761815134443</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>23.99521412107334</v>
+        <v>24.86645221931231</v>
       </c>
       <c r="C143">
-        <v>24.5362796747295</v>
+        <v>24.84070003078177</v>
       </c>
       <c r="D143">
-        <v>24.53081793255369</v>
+        <v>24.76457351519782</v>
       </c>
       <c r="E143">
-        <v>24.46857590494521</v>
+        <v>24.8910490055018</v>
       </c>
       <c r="F143">
-        <v>24.57264894914142</v>
+        <v>25.012200916721</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>23.96288986380875</v>
+        <v>24.79063310553977</v>
       </c>
       <c r="C144">
-        <v>24.47029074306084</v>
+        <v>24.76385556222979</v>
       </c>
       <c r="D144">
-        <v>24.46915990755926</v>
+        <v>24.68799897819057</v>
       </c>
       <c r="E144">
-        <v>24.40984507188661</v>
+        <v>24.81532645024162</v>
       </c>
       <c r="F144">
-        <v>24.51651045318729</v>
+        <v>24.93666551473514</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>23.93058118697647</v>
+        <v>24.7148174426381</v>
       </c>
       <c r="C145">
-        <v>24.40435323195882</v>
+        <v>24.68706876350385</v>
       </c>
       <c r="D145">
-        <v>24.40758438465909</v>
+        <v>24.61151507581528</v>
       </c>
       <c r="E145">
-        <v>24.35118968444824</v>
+        <v>24.7395748455958</v>
       </c>
       <c r="F145">
-        <v>24.46043864587505</v>
+        <v>24.86101635094802</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>23.89828814731151</v>
+        <v>24.63900852959791</v>
       </c>
       <c r="C146">
-        <v>24.33846772532273</v>
+        <v>24.6103433762327</v>
       </c>
       <c r="D146">
-        <v>24.34609134668351</v>
+        <v>24.53512299516537</v>
       </c>
       <c r="E146">
-        <v>24.29260971003674</v>
+        <v>24.66379758552847</v>
       </c>
       <c r="F146">
-        <v>24.40443352927446</v>
+        <v>24.78525773004626</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>23.86601080025305</v>
+        <v>24.56320954058285</v>
       </c>
       <c r="C147">
-        <v>24.27263489814187</v>
+        <v>24.53368294015884</v>
       </c>
       <c r="D147">
-        <v>24.28468077320411</v>
+        <v>24.45882381633104</v>
       </c>
       <c r="E147">
-        <v>24.23410511619537</v>
+        <v>24.58799796957457</v>
       </c>
       <c r="F147">
-        <v>24.3484951015135</v>
+        <v>24.70939385871249</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>23.8337492000417</v>
+        <v>24.48742351908798</v>
       </c>
       <c r="C148">
-        <v>24.2068553992845</v>
+        <v>24.45709079594672</v>
       </c>
       <c r="D148">
-        <v>24.22335264388736</v>
+        <v>24.38261854443057</v>
       </c>
       <c r="E148">
-        <v>24.17567587063808</v>
+        <v>24.51217919623694</v>
       </c>
       <c r="F148">
-        <v>24.29262335991792</v>
+        <v>24.63342884199509</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>23.8015033997395</v>
+        <v>24.41165338604356</v>
       </c>
       <c r="C149">
-        <v>24.14112985080934</v>
+        <v>24.38057008789119</v>
       </c>
       <c r="D149">
-        <v>24.16210693855545</v>
+        <v>24.30650810705745</v>
       </c>
       <c r="E149">
-        <v>24.11732194123872</v>
+        <v>24.436344352887</v>
       </c>
       <c r="F149">
-        <v>24.23681830117131</v>
+        <v>24.55736669446811</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>23.76927345123884</v>
+        <v>24.3359019491337</v>
       </c>
       <c r="C150">
-        <v>24.07545886337516</v>
+        <v>24.3041237665444</v>
       </c>
       <c r="D150">
-        <v>24.10094363345724</v>
+        <v>24.23049334811797</v>
       </c>
       <c r="E150">
-        <v>24.05904329602658</v>
+        <v>24.36049643942527</v>
       </c>
       <c r="F150">
-        <v>24.18107991172899</v>
+        <v>24.48121133829409</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>23.73705940524086</v>
+        <v>24.26017189730806</v>
       </c>
       <c r="C151">
-        <v>24.00984301259044</v>
+        <v>24.22775459166903</v>
       </c>
       <c r="D151">
-        <v>24.03986270370377</v>
+        <v>24.15457505655278</v>
       </c>
       <c r="E151">
-        <v>24.00083990320391</v>
+        <v>24.28463836515257</v>
       </c>
       <c r="F151">
-        <v>24.12540818761435</v>
+        <v>24.40496660247944</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>23.70486131135842</v>
+        <v>24.18446581736404</v>
       </c>
       <c r="C152">
-        <v>23.94428273905487</v>
+        <v>24.15146513552404</v>
       </c>
       <c r="D152">
-        <v>23.97886413102252</v>
+        <v>24.07875395239197</v>
       </c>
       <c r="E152">
-        <v>23.94271173113309</v>
+        <v>24.20877293876575</v>
       </c>
       <c r="F152">
-        <v>24.06980312192659</v>
+        <v>24.32863623305944</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>23.67267921806755</v>
+        <v>24.10878618870716</v>
       </c>
       <c r="C153">
-        <v>23.87877866486881</v>
+        <v>24.07525778664311</v>
       </c>
       <c r="D153">
-        <v>23.9179478939984</v>
+        <v>24.00303070600341</v>
       </c>
       <c r="E153">
-        <v>23.88465874833782</v>
+        <v>24.1329028860789</v>
       </c>
       <c r="F153">
-        <v>24.01426470632681</v>
+        <v>24.25222388993593</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>23.64051317275438</v>
+        <v>24.0331353905784</v>
       </c>
       <c r="C154">
-        <v>23.81333132385851</v>
+        <v>23.99913475421473</v>
       </c>
       <c r="D154">
-        <v>23.85711397127019</v>
+        <v>23.92740593734313</v>
       </c>
       <c r="E154">
-        <v>23.82668092345303</v>
+        <v>24.0570308511296</v>
       </c>
       <c r="F154">
-        <v>23.95879293192074</v>
+        <v>24.17573314798342</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>23.60836322173865</v>
+        <v>23.95751570870893</v>
       </c>
       <c r="C155">
-        <v>23.7479412384756</v>
+        <v>23.92309807315571</v>
       </c>
       <c r="D155">
-        <v>23.79636234156302</v>
+        <v>23.85188022496403</v>
       </c>
       <c r="E155">
-        <v>23.76877822534846</v>
+        <v>23.981159387812</v>
       </c>
       <c r="F155">
-        <v>23.90338778351281</v>
+        <v>24.09916750525068</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>23.57622941030203</v>
+        <v>23.88192932763678</v>
       </c>
       <c r="C156">
-        <v>23.68260892087566</v>
+        <v>23.84714960996075</v>
       </c>
       <c r="D156">
-        <v>23.73569298142984</v>
+        <v>23.77645410972804</v>
       </c>
       <c r="E156">
-        <v>23.71095062303489</v>
+        <v>23.90529097157226</v>
       </c>
       <c r="F156">
-        <v>23.84804924936549</v>
+        <v>24.02253037839287</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>23.54411178268637</v>
+        <v>23.8063783541526</v>
       </c>
       <c r="C157">
-        <v>23.61733481629451</v>
+        <v>23.7712910692132</v>
       </c>
       <c r="D157">
-        <v>23.67510586739145</v>
+        <v>23.70112809580923</v>
       </c>
       <c r="E157">
-        <v>23.65319808568975</v>
+        <v>23.82942800332012</v>
       </c>
       <c r="F157">
-        <v>23.79277731845012</v>
+        <v>23.94582510618875</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>23.51201038213854</v>
+        <v>23.73086481050064</v>
       </c>
       <c r="C158">
-        <v>23.5521193605429</v>
+        <v>23.69552400100715</v>
       </c>
       <c r="D158">
-        <v>23.61460097907197</v>
+        <v>23.62590265849509</v>
       </c>
       <c r="E158">
-        <v>23.59552058265806</v>
+        <v>23.75357280282484</v>
       </c>
       <c r="F158">
-        <v>23.73757197766088</v>
+        <v>23.86905495882396</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>23.47992525092279</v>
+        <v>23.65539063083915</v>
       </c>
       <c r="C159">
-        <v>23.48696304693692</v>
+        <v>23.61984980890596</v>
       </c>
       <c r="D159">
-        <v>23.55417829452941</v>
+        <v>23.5507782406549</v>
       </c>
       <c r="E159">
-        <v>23.53791808345346</v>
+        <v>23.67772761646855</v>
       </c>
       <c r="F159">
-        <v>23.6824332133206</v>
+        <v>23.79222313437735</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>23.44785643033872</v>
+        <v>23.57995765924879</v>
       </c>
       <c r="C160">
-        <v>23.42186632136315</v>
+        <v>23.54426975847488</v>
       </c>
       <c r="D160">
-        <v>23.49383779185176</v>
+        <v>23.47575526043192</v>
       </c>
       <c r="E160">
-        <v>23.48039055766221</v>
+        <v>23.60189462245548</v>
       </c>
       <c r="F160">
-        <v>23.62736100942422</v>
+        <v>23.71533275875417</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>23.41580396073581</v>
+        <v>23.50456769165679</v>
       </c>
       <c r="C161">
-        <v>23.3568296186847</v>
+        <v>23.46878498623283</v>
       </c>
       <c r="D161">
-        <v>23.43357944917431</v>
+        <v>23.40083411022449</v>
       </c>
       <c r="E161">
-        <v>23.42293797513079</v>
+        <v>23.52607592521917</v>
       </c>
       <c r="F161">
-        <v>23.57235534966114</v>
+        <v>23.63838687564136</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>23.38376788155138</v>
+        <v>23.4292224476937</v>
       </c>
       <c r="C162">
-        <v>23.29185336337759</v>
+        <v>23.39339650892416</v>
       </c>
       <c r="D162">
-        <v>23.37340324408866</v>
+        <v>23.3260151606834</v>
       </c>
       <c r="E162">
-        <v>23.3655603058765</v>
+        <v>23.45027356085391</v>
       </c>
       <c r="F162">
-        <v>23.51741621889798</v>
+        <v>23.56138848513498</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>23.35174823130808</v>
+        <v>23.35392355434078</v>
       </c>
       <c r="C163">
-        <v>23.22693793225563</v>
+        <v>23.31810523280496</v>
       </c>
       <c r="D163">
-        <v>23.31330915436707</v>
+        <v>23.25129876252452</v>
       </c>
       <c r="E163">
-        <v>23.3082575200653</v>
+        <v>23.37448950320526</v>
       </c>
       <c r="F163">
-        <v>23.46254360055815</v>
+        <v>23.48434051711937</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>23.31974504764308</v>
+        <v>23.27867257830941</v>
       </c>
       <c r="C164">
-        <v>23.16208373272</v>
+        <v>23.24291196296652</v>
       </c>
       <c r="D164">
-        <v>23.25329715846388</v>
+        <v>23.17668524785822</v>
       </c>
       <c r="E164">
-        <v>23.25102958803213</v>
+        <v>23.29872565871576</v>
       </c>
       <c r="F164">
-        <v>23.40773747758709</v>
+        <v>23.40724584126346</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>23.28775836733277</v>
+        <v>23.20347104419834</v>
       </c>
       <c r="C165">
-        <v>23.09729115450134</v>
+        <v>23.16781741246082</v>
       </c>
       <c r="D165">
-        <v>23.19336723455543</v>
+        <v>23.10217493289886</v>
       </c>
       <c r="E165">
-        <v>23.19387648028161</v>
+        <v>23.22298387023834</v>
       </c>
       <c r="F165">
-        <v>23.35299783210812</v>
+        <v>23.33010723305911</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>23.25578822629783</v>
+        <v>23.12832040966057</v>
       </c>
       <c r="C166">
-        <v>23.03256057344571</v>
+        <v>23.09282221113465</v>
       </c>
       <c r="D166">
-        <v>23.13351936089961</v>
+        <v>23.02776811773061</v>
       </c>
       <c r="E166">
-        <v>23.1367981674352</v>
+        <v>23.14726592369604</v>
       </c>
       <c r="F166">
-        <v>23.29832464548856</v>
+        <v>23.25292744890113</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>23.22383465963584</v>
+        <v>23.05322203889779</v>
       </c>
       <c r="C167">
-        <v>22.96789235597015</v>
+        <v>23.01792691406845</v>
       </c>
       <c r="D167">
-        <v>23.07375351584954</v>
+        <v>22.95346508925074</v>
       </c>
       <c r="E167">
-        <v>23.07979462027767</v>
+        <v>23.07157354349578</v>
       </c>
       <c r="F167">
-        <v>23.24371789957427</v>
+        <v>23.17570917588077</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>23.19189770163254</v>
+        <v>22.97817727188928</v>
       </c>
       <c r="C168">
-        <v>22.90328685794779</v>
+        <v>22.94313200948867</v>
       </c>
       <c r="D168">
-        <v>23.01406967754253</v>
+        <v>22.87926612057095</v>
       </c>
       <c r="E168">
-        <v>23.02286580984327</v>
+        <v>22.99590839515781</v>
       </c>
       <c r="F168">
-        <v>23.18917757547763</v>
+        <v>23.09845504635134</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>23.15997738578281</v>
+        <v>22.90318739227022</v>
       </c>
       <c r="C169">
-        <v>22.83874442038344</v>
+        <v>22.86843792617497</v>
       </c>
       <c r="D169">
-        <v>22.95446782435739</v>
+        <v>22.80517147321487</v>
       </c>
       <c r="E169">
-        <v>22.96601170729356</v>
+        <v>22.92027209183685</v>
       </c>
       <c r="F169">
-        <v>23.13470365399541</v>
+        <v>23.02116761864262</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>23.12807374481008</v>
+        <v>22.82825362834208</v>
       </c>
       <c r="C170">
-        <v>22.77426538613051</v>
+        <v>22.79384504029982</v>
       </c>
       <c r="D170">
-        <v>22.8949479350341</v>
+        <v>22.73118139745044</v>
       </c>
       <c r="E170">
-        <v>22.90923228395895</v>
+        <v>22.84466619069902</v>
       </c>
       <c r="F170">
-        <v>23.08029611537811</v>
+        <v>22.94384941008727</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>23.09618681067942</v>
+        <v>22.75337713634838</v>
       </c>
       <c r="C171">
-        <v>22.70985008607752</v>
+        <v>22.71935368168619</v>
       </c>
       <c r="D171">
-        <v>22.8355099882873</v>
+        <v>22.65729613320895</v>
       </c>
       <c r="E171">
-        <v>22.85252751133916</v>
+        <v>22.76909219475152</v>
       </c>
       <c r="F171">
-        <v>23.02595493874007</v>
+        <v>22.86650289269967</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>23.06431661462456</v>
+        <v>22.67855905137955</v>
       </c>
       <c r="C172">
-        <v>22.64549884362361</v>
+        <v>22.64496413948454</v>
       </c>
       <c r="D172">
-        <v>22.77615396297002</v>
+        <v>22.58351591125727</v>
       </c>
       <c r="E172">
-        <v>22.79589736109475</v>
+        <v>22.69355155873654</v>
       </c>
       <c r="F172">
-        <v>22.97168010434158</v>
+        <v>22.78913048397219</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>23.03246318715566</v>
+        <v>22.60380045451801</v>
       </c>
       <c r="C173">
-        <v>22.58121197512425</v>
+        <v>22.57067666728596</v>
       </c>
       <c r="D173">
-        <v>22.71687983808562</v>
+        <v>22.50984095331177</v>
       </c>
       <c r="E173">
-        <v>22.73934180501478</v>
+        <v>22.61804568648332</v>
       </c>
       <c r="F173">
-        <v>22.91747159166255</v>
+        <v>22.71173454543888</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>23.00062655807967</v>
+        <v>22.5291023794399</v>
       </c>
       <c r="C174">
-        <v>22.51698978147299</v>
+        <v>22.4964914876974</v>
       </c>
       <c r="D174">
-        <v>22.65768759206824</v>
+        <v>22.43627147332202</v>
       </c>
       <c r="E174">
-        <v>22.68286081512595</v>
+        <v>22.54257593213301</v>
       </c>
       <c r="F174">
-        <v>22.86332937998532</v>
+        <v>22.63431738673592</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>22.96880675652407</v>
+        <v>22.45446580956997</v>
       </c>
       <c r="C175">
-        <v>22.45283255839913</v>
+        <v>22.42240879639975</v>
       </c>
       <c r="D175">
-        <v>22.5985772039209</v>
+        <v>22.36280767738258</v>
       </c>
       <c r="E175">
-        <v>22.62645436359639</v>
+        <v>22.46714360561202</v>
       </c>
       <c r="F175">
-        <v>22.80925344830824</v>
+        <v>22.55688128342654</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>22.93700381093716</v>
+        <v>22.37989170114951</v>
       </c>
       <c r="C176">
-        <v>22.38874060433853</v>
+        <v>22.34842876579651</v>
       </c>
       <c r="D176">
-        <v>22.53954865317301</v>
+        <v>22.2894497648068</v>
       </c>
       <c r="E176">
-        <v>22.57012242276366</v>
+        <v>22.39174997057113</v>
       </c>
       <c r="F176">
-        <v>22.75524377370837</v>
+        <v>22.47942846093006</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>22.90521774912458</v>
+        <v>22.30538096784681</v>
       </c>
       <c r="C177">
-        <v>22.32471420671747</v>
+        <v>22.27455154813478</v>
       </c>
       <c r="D177">
-        <v>22.48060191922497</v>
+        <v>22.21619792812316</v>
       </c>
       <c r="E177">
-        <v>22.51386496513501</v>
+        <v>22.316396245214</v>
       </c>
       <c r="F177">
-        <v>22.70130033542238</v>
+        <v>22.40196109899843</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>22.87344859825112</v>
+        <v>22.23093447898528</v>
       </c>
       <c r="C178">
-        <v>22.26075364726018</v>
+        <v>22.20077727806442</v>
       </c>
       <c r="D178">
-        <v>22.42173698163493</v>
+        <v>22.14305235385583</v>
       </c>
       <c r="E178">
-        <v>22.45768196338768</v>
+        <v>22.2410836074513</v>
       </c>
       <c r="F178">
-        <v>22.64742311165355</v>
+        <v>22.32448132580218</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>22.84169638485956</v>
+        <v>22.1565530680042</v>
       </c>
       <c r="C179">
-        <v>22.19685920237068</v>
+        <v>22.12710607548364</v>
       </c>
       <c r="D179">
-        <v>22.36295382012714</v>
+        <v>22.0700132228326</v>
       </c>
       <c r="E179">
-        <v>22.40157339036631</v>
+        <v>22.16581319316476</v>
       </c>
       <c r="F179">
-        <v>22.59361208045725</v>
+        <v>22.2469912402801</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>22.80996113489346</v>
+        <v>22.08223754229637</v>
       </c>
       <c r="C180">
-        <v>22.13303111767183</v>
+        <v>22.05353804709834</v>
       </c>
       <c r="D180">
-        <v>22.30425241377407</v>
+        <v>21.99708071033382</v>
       </c>
       <c r="E180">
-        <v>22.34553921908955</v>
+        <v>22.09058609651433</v>
       </c>
       <c r="F180">
-        <v>22.53986721976549</v>
+        <v>22.16949289663928</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>22.7782428736936</v>
+        <v>22.0079886741803</v>
       </c>
       <c r="C181">
-        <v>22.06926966260415</v>
+        <v>21.98007328987007</v>
       </c>
       <c r="D181">
-        <v>22.24563274240061</v>
+        <v>21.92425498679325</v>
       </c>
       <c r="E181">
-        <v>22.28957942274604</v>
+        <v>22.01540337534242</v>
       </c>
       <c r="F181">
-        <v>22.48618850599083</v>
+        <v>22.09198831018336</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>22.74654162604237</v>
+        <v>21.93380719135841</v>
       </c>
       <c r="C182">
-        <v>22.00557509449002</v>
+        <v>21.90671188982903</v>
       </c>
       <c r="D182">
-        <v>22.18709478624513</v>
+        <v>21.85153621782088</v>
       </c>
       <c r="E182">
-        <v>22.23369397469525</v>
+        <v>21.94026604934641</v>
       </c>
       <c r="F182">
-        <v>22.43257591698419</v>
+        <v>22.01447944532854</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>22.71485741616426</v>
+        <v>21.85969380173545</v>
       </c>
       <c r="C183">
-        <v>21.94194766342758</v>
+        <v>21.833453927506</v>
       </c>
       <c r="D183">
-        <v>22.1286385254422</v>
+        <v>21.77892456470472</v>
       </c>
       <c r="E183">
-        <v>22.17788284846806</v>
+        <v>21.86517510018533</v>
       </c>
       <c r="F183">
-        <v>22.37902943005981</v>
+        <v>21.93696824337162</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>22.68319026773462</v>
+        <v>21.78564918530425</v>
       </c>
       <c r="C184">
-        <v>21.87838761464465</v>
+        <v>21.76029947492509</v>
       </c>
       <c r="D184">
-        <v>22.07026394027998</v>
+        <v>21.70642018442757</v>
       </c>
       <c r="E184">
-        <v>22.122146017767</v>
+        <v>21.79013147673973</v>
       </c>
       <c r="F184">
-        <v>22.32554902233038</v>
+        <v>21.85945660519683</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>22.65154020386552</v>
+        <v>21.71167399270997</v>
       </c>
       <c r="C185">
-        <v>21.81489518459606</v>
+        <v>21.68724859836465</v>
       </c>
       <c r="D185">
-        <v>22.01197101120476</v>
+        <v>21.63402323017566</v>
       </c>
       <c r="E185">
-        <v>22.06648345646981</v>
+        <v>21.71513609343996</v>
       </c>
       <c r="F185">
-        <v>22.27213467080639</v>
+        <v>21.7819463966031</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>22.61990724720779</v>
+        <v>21.63776883351243</v>
       </c>
       <c r="C186">
-        <v>21.75147059183206</v>
+        <v>21.61430135856903</v>
       </c>
       <c r="D186">
-        <v>21.95375971838522</v>
+        <v>21.56173385142776</v>
       </c>
       <c r="E186">
-        <v>22.0108951386253</v>
+        <v>21.64018983012793</v>
       </c>
       <c r="F186">
-        <v>22.21878635190805</v>
+        <v>21.70443944022081</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>22.58829141990061</v>
+        <v>21.56393430812974</v>
       </c>
       <c r="C187">
-        <v>21.68811407264193</v>
+        <v>21.541457812638</v>
       </c>
       <c r="D187">
-        <v>21.89563004251869</v>
+        <v>21.48955219389253</v>
       </c>
       <c r="E187">
-        <v>21.95538103845241</v>
+        <v>21.56529353721443</v>
       </c>
       <c r="F187">
-        <v>22.16550404235003</v>
+        <v>21.62693753002398</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>22.55669274357236</v>
+        <v>21.49017098734058</v>
       </c>
       <c r="C188">
-        <v>21.62482584953571</v>
+        <v>21.46871801427082</v>
       </c>
       <c r="D188">
-        <v>21.83758196451764</v>
+        <v>21.41747840023622</v>
       </c>
       <c r="E188">
-        <v>21.89994113034475</v>
+        <v>21.49044803410083</v>
       </c>
       <c r="F188">
-        <v>22.11228771883403</v>
+        <v>21.54944243066425</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>22.52511123935884</v>
+        <v>21.41647941630751</v>
       </c>
       <c r="C189">
-        <v>21.56160614049228</v>
+        <v>21.39608201476</v>
       </c>
       <c r="D189">
-        <v>21.77961546534046</v>
+        <v>21.34551261033262</v>
       </c>
       <c r="E189">
-        <v>21.84457538886928</v>
+        <v>21.41565410873725</v>
       </c>
       <c r="F189">
-        <v>22.05913735787627</v>
+        <v>21.47195587305937</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>22.49354692799065</v>
+        <v>21.34286011072236</v>
       </c>
       <c r="C190">
-        <v>21.49845515916053</v>
+        <v>21.32354986277002</v>
       </c>
       <c r="D190">
-        <v>21.72173052610007</v>
+        <v>21.2736549614039</v>
       </c>
       <c r="E190">
-        <v>21.78928378876667</v>
+        <v>21.34091252285177</v>
       </c>
       <c r="F190">
-        <v>22.00605293592929</v>
+        <v>21.39447955280772</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>22.46199982973698</v>
+        <v>21.26931357430184</v>
       </c>
       <c r="C191">
-        <v>21.43537311019099</v>
+        <v>21.25112160493578</v>
       </c>
       <c r="D191">
-        <v>21.66392712806681</v>
+        <v>21.20190558668536</v>
       </c>
       <c r="E191">
-        <v>21.73406630494954</v>
+        <v>21.26622401033137</v>
       </c>
       <c r="F191">
-        <v>21.9530344292285</v>
+        <v>21.31701513221186</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>22.43046996438328</v>
+        <v>21.19584028680236</v>
       </c>
       <c r="C192">
-        <v>21.3723601954397</v>
+        <v>21.17879728617856</v>
       </c>
       <c r="D192">
-        <v>21.60620525259611</v>
+        <v>21.13026461823891</v>
       </c>
       <c r="E192">
-        <v>21.67892291250076</v>
+        <v>21.19158927646921</v>
       </c>
       <c r="F192">
-        <v>21.90008181400364</v>
+        <v>21.23956425255352</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>22.39895735131088</v>
+        <v>21.12244070436704</v>
       </c>
       <c r="C193">
-        <v>21.30941661690816</v>
+        <v>21.1065769499951</v>
       </c>
       <c r="D193">
-        <v>21.54856488127661</v>
+        <v>21.05873218501297</v>
       </c>
       <c r="E193">
-        <v>21.62385358668573</v>
+        <v>21.11700900334431</v>
       </c>
       <c r="F193">
-        <v>21.84719506658019</v>
+        <v>21.16212852325014</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>22.36746200952062</v>
+        <v>21.04911526267592</v>
       </c>
       <c r="C194">
-        <v>21.24654257022237</v>
+        <v>21.03446063891677</v>
       </c>
       <c r="D194">
-        <v>21.49100599585881</v>
+        <v>20.98730841340792</v>
       </c>
       <c r="E194">
-        <v>21.56885830294102</v>
+        <v>21.04248384806714</v>
       </c>
       <c r="F194">
-        <v>21.79437416317914</v>
+        <v>21.08470952467458</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>22.33598395760343</v>
+        <v>20.97586438406278</v>
       </c>
       <c r="C195">
-        <v>21.18373824722343</v>
+        <v>20.96244839463209</v>
       </c>
       <c r="D195">
-        <v>21.43352857824413</v>
+        <v>20.91599342795254</v>
       </c>
       <c r="E195">
-        <v>21.51393703687808</v>
+        <v>20.96801444194525</v>
       </c>
       <c r="F195">
-        <v>21.74161908000433</v>
+        <v>21.0073088030021</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>22.30452321370397</v>
+        <v>20.90268847159933</v>
       </c>
       <c r="C196">
-        <v>21.12100383613555</v>
+        <v>20.89054025829285</v>
       </c>
       <c r="D196">
-        <v>21.37613261050117</v>
+        <v>20.84478735100522</v>
       </c>
       <c r="E196">
-        <v>21.45908976428361</v>
+        <v>20.89360139560081</v>
       </c>
       <c r="F196">
-        <v>21.68892979311688</v>
+        <v>20.92992788772465</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>22.27307979564498</v>
+        <v>20.82958790578642</v>
       </c>
       <c r="C197">
-        <v>21.05833951789664</v>
+        <v>20.81873627051183</v>
       </c>
       <c r="D197">
-        <v>21.31881807486828</v>
+        <v>20.77369030293379</v>
       </c>
       <c r="E197">
-        <v>21.40431646111975</v>
+        <v>20.81924529741356</v>
       </c>
       <c r="F197">
-        <v>21.63630627848347</v>
+        <v>20.85256827923623</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>22.24165372087815</v>
+        <v>20.75656305457177</v>
       </c>
       <c r="C198">
-        <v>20.99574547456053</v>
+        <v>20.74703647156845</v>
       </c>
       <c r="D198">
-        <v>21.26158495371486</v>
+        <v>20.70270240228542</v>
       </c>
       <c r="E198">
-        <v>21.34961710351013</v>
+        <v>20.74494671271834</v>
       </c>
       <c r="F198">
-        <v>21.58374851233943</v>
+        <v>20.77523145318168</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>22.21024500649512</v>
+        <v>20.68361427170668</v>
       </c>
       <c r="C199">
-        <v>20.93322188365405</v>
+        <v>20.67544090154015</v>
       </c>
       <c r="D199">
-        <v>21.20443322962776</v>
+        <v>20.63182376590677</v>
       </c>
       <c r="E199">
-        <v>21.2949916677735</v>
+        <v>20.67070618815284</v>
       </c>
       <c r="F199">
-        <v>21.53125647080913</v>
+        <v>20.69791885307371</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>22.17885366918843</v>
+        <v>20.61074189536484</v>
       </c>
       <c r="C200">
-        <v>20.87076891934606</v>
+        <v>20.60394960040651</v>
       </c>
       <c r="D200">
-        <v>21.14736288536339</v>
+        <v>20.56105450908014</v>
       </c>
       <c r="E200">
-        <v>21.24044013039726</v>
+        <v>20.59652425079336</v>
       </c>
       <c r="F200">
-        <v>21.47883013003477</v>
+        <v>20.62063190721192</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>22.14747972538091</v>
+        <v>20.53794624178905</v>
       </c>
       <c r="C201">
-        <v>20.80838675281992</v>
+        <v>20.53256260816321</v>
       </c>
       <c r="D201">
-        <v>21.09037390385054</v>
+        <v>20.49039474538958</v>
       </c>
       <c r="E201">
-        <v>21.18596246804496</v>
+        <v>20.52240140715348</v>
       </c>
       <c r="F201">
-        <v>21.42646946608662</v>
+        <v>20.54337201848014</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>22.11612319115167</v>
+        <v>20.46522762207507</v>
       </c>
       <c r="C202">
-        <v>20.74607555107038</v>
+        <v>20.46127996490034</v>
       </c>
       <c r="D202">
-        <v>21.03346626819813</v>
+        <v>20.41984458720961</v>
       </c>
       <c r="E202">
-        <v>21.13155865755651</v>
+        <v>20.44833814685055</v>
       </c>
       <c r="F202">
-        <v>21.37417445479866</v>
+        <v>20.4661405673042</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>22.08478408224702</v>
+        <v>20.39258633166195</v>
       </c>
       <c r="C203">
-        <v>20.68383547482668</v>
+        <v>20.39010171088787</v>
       </c>
       <c r="D203">
-        <v>20.97663996169762</v>
+        <v>20.34940414542391</v>
       </c>
       <c r="E203">
-        <v>21.07722867594851</v>
+        <v>20.37433494236714</v>
       </c>
       <c r="F203">
-        <v>21.32194507247432</v>
+        <v>20.38893890759654</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>22.05346241406222</v>
+        <v>20.32002265254149</v>
       </c>
       <c r="C204">
-        <v>20.62166668831498</v>
+        <v>20.31902788660572</v>
       </c>
       <c r="D204">
-        <v>20.91989496765076</v>
+        <v>20.27907352952472</v>
       </c>
       <c r="E204">
-        <v>21.02297250040998</v>
+        <v>20.30039224793904</v>
       </c>
       <c r="F204">
-        <v>21.26978129527204</v>
+        <v>20.31176837430374</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>22.0221582017818</v>
+        <v>20.24753685013395</v>
       </c>
       <c r="C205">
-        <v>20.55956935056475</v>
+        <v>20.24805853281472</v>
       </c>
       <c r="D205">
-        <v>20.86323126974351</v>
+        <v>20.20885284799839</v>
       </c>
       <c r="E205">
-        <v>20.9687901083104</v>
+        <v>20.22651050252417</v>
       </c>
       <c r="F205">
-        <v>21.21768309938846</v>
+        <v>20.2346302836721</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>21.99087146028097</v>
+        <v>20.17512918438072</v>
       </c>
       <c r="C206">
-        <v>20.49754361808165</v>
+        <v>20.17719369059544</v>
       </c>
       <c r="D206">
-        <v>20.80664885179808</v>
+        <v>20.1387422078851</v>
       </c>
       <c r="E206">
-        <v>20.91468147719788</v>
+        <v>20.15269013013113</v>
       </c>
       <c r="F206">
-        <v>21.16565046103658</v>
+        <v>20.15752593065841</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>21.95960220416711</v>
+        <v>20.10279990225364</v>
       </c>
       <c r="C207">
-        <v>20.43558964497842</v>
+        <v>20.10643340141398</v>
       </c>
       <c r="D207">
-        <v>20.75014769780562</v>
+        <v>20.06874171532752</v>
       </c>
       <c r="E207">
-        <v>20.86064658479657</v>
+        <v>20.07893153854847</v>
       </c>
       <c r="F207">
-        <v>21.1136833561681</v>
+        <v>20.0804565882006</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>21.92835044779153</v>
+        <v>20.03054923821999</v>
       </c>
       <c r="C208">
-        <v>20.37370757887935</v>
+        <v>20.03577770713306</v>
       </c>
       <c r="D208">
-        <v>20.69372779194312</v>
+        <v>19.99885147540103</v>
       </c>
       <c r="E208">
-        <v>20.8066854090083</v>
+        <v>20.00523512178252</v>
       </c>
       <c r="F208">
-        <v>21.06178176119946</v>
+        <v>20.00342350810411</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>21.89711620507518</v>
+        <v>19.95837741522084</v>
       </c>
       <c r="C209">
-        <v>20.31189756672777</v>
+        <v>19.9652266500945</v>
       </c>
       <c r="D209">
-        <v>20.63738911857519</v>
+        <v>19.92907159224378</v>
       </c>
       <c r="E209">
-        <v>20.75279792791283</v>
+        <v>19.9316012608462</v>
       </c>
       <c r="F209">
-        <v>21.00994565243934</v>
+        <v>19.92642792851264</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>21.86589948977185</v>
+        <v>19.88628464987325</v>
       </c>
       <c r="C210">
-        <v>20.25015975623428</v>
+        <v>19.89478027309849</v>
       </c>
       <c r="D210">
-        <v>20.58113166204465</v>
+        <v>19.85940216911365</v>
       </c>
       <c r="E210">
-        <v>20.69898411976809</v>
+        <v>19.85803032240679</v>
       </c>
       <c r="F210">
-        <v>20.95817500625018</v>
+        <v>19.84947106757671</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>21.83470031553071</v>
+        <v>19.81427114834436</v>
       </c>
       <c r="C211">
-        <v>20.18849429100982</v>
+        <v>19.82443861945165</v>
       </c>
       <c r="D211">
-        <v>20.52495540714103</v>
+        <v>19.7898433083609</v>
       </c>
       <c r="E211">
-        <v>20.64524396301043</v>
+        <v>19.78452266068366</v>
       </c>
       <c r="F211">
-        <v>20.90646979905395</v>
+        <v>19.77255412514003</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>21.80351869569822</v>
+        <v>19.74233710509326</v>
       </c>
       <c r="C212">
-        <v>20.12690131254783</v>
+        <v>19.75420173300807</v>
       </c>
       <c r="D212">
-        <v>20.46886033875955</v>
+        <v>19.72039511165033</v>
       </c>
       <c r="E212">
-        <v>20.59157743625477</v>
+        <v>19.71107861861838</v>
       </c>
       <c r="F212">
-        <v>20.85483000714693</v>
+        <v>19.6956782791927</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>21.77235464340816</v>
+        <v>19.67048270738674</v>
       </c>
       <c r="C213">
-        <v>20.06538096032783</v>
+        <v>19.68406965813758</v>
       </c>
       <c r="D213">
-        <v>20.41284644197163</v>
+        <v>19.65105767988837</v>
       </c>
       <c r="E213">
-        <v>20.53798451829494</v>
+        <v>19.63769852651577</v>
       </c>
       <c r="F213">
-        <v>20.80325560710849</v>
+        <v>19.61884469739072</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>21.74120817159247</v>
+        <v>19.59870813545972</v>
       </c>
       <c r="C214">
-        <v>20.00393336620623</v>
+        <v>19.61404243981575</v>
       </c>
       <c r="D214">
-        <v>20.35691370203555</v>
+        <v>19.58183111327655</v>
       </c>
       <c r="E214">
-        <v>20.48446518810388</v>
+        <v>19.56438270345983</v>
       </c>
       <c r="F214">
-        <v>20.75174657551901</v>
+        <v>19.54205452894359</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>21.71007929250055</v>
+        <v>19.52701356127375</v>
       </c>
       <c r="C215">
-        <v>19.94255866703602</v>
+        <v>19.54412012357639</v>
       </c>
       <c r="D215">
-        <v>20.30106210439763</v>
+        <v>19.5127155114719</v>
       </c>
       <c r="E215">
-        <v>20.4310194248339</v>
+        <v>19.49113145876006</v>
       </c>
       <c r="F215">
-        <v>20.70030288902225</v>
+        <v>19.46530890743493</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>21.67896801876801</v>
+        <v>19.45539914555344</v>
       </c>
       <c r="C216">
-        <v>19.88125699553218</v>
+        <v>19.47430275558446</v>
       </c>
       <c r="D216">
-        <v>20.24529163457427</v>
+        <v>19.44371097333711</v>
       </c>
       <c r="E216">
-        <v>20.37764720781683</v>
+        <v>19.41794509061782</v>
       </c>
       <c r="F216">
-        <v>20.64892452433725</v>
+        <v>19.38860894602804</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>21.64787436267757</v>
+        <v>19.38386504582935</v>
       </c>
       <c r="C217">
-        <v>19.82002848233068</v>
+        <v>19.40459038261964</v>
       </c>
       <c r="D217">
-        <v>20.18960227842503</v>
+        <v>19.37481759741461</v>
       </c>
       <c r="E217">
-        <v>20.32434851656419</v>
+        <v>19.34482388714197</v>
       </c>
       <c r="F217">
-        <v>20.59761145817263</v>
+        <v>19.31195574828785</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>21.61679833630215</v>
+        <v>19.3124114118184</v>
       </c>
       <c r="C218">
-        <v>19.75887325627233</v>
+        <v>19.33498305210721</v>
       </c>
       <c r="D218">
-        <v>20.13399402194008</v>
+        <v>19.30603548174976</v>
       </c>
       <c r="E218">
-        <v>20.27112333076782</v>
+        <v>19.27176812799096</v>
       </c>
       <c r="F218">
-        <v>20.54636366739296</v>
+        <v>19.23535040186216</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>21.5857399515411</v>
+        <v>19.24103838632358</v>
       </c>
       <c r="C219">
-        <v>19.69779144368461</v>
+        <v>19.26548081209785</v>
       </c>
       <c r="D219">
-        <v>20.07846685129642</v>
+        <v>19.23736472391285</v>
       </c>
       <c r="E219">
-        <v>20.21797163029973</v>
+        <v>19.19877808235135</v>
       </c>
       <c r="F219">
-        <v>20.49518112895236</v>
+        <v>19.15879398016867</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>21.55469922003765</v>
+        <v>19.16974610329586</v>
       </c>
       <c r="C220">
-        <v>19.63678316754313</v>
+        <v>19.19608371135536</v>
       </c>
       <c r="D220">
-        <v>20.02302075285964</v>
+        <v>19.16880542069787</v>
       </c>
       <c r="E220">
-        <v>20.16489339521248</v>
+        <v>19.12585401017902</v>
       </c>
       <c r="F220">
-        <v>20.4440638198754</v>
+        <v>19.08228754005284</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>21.52367615297492</v>
+        <v>19.09853469408066</v>
       </c>
       <c r="C221">
-        <v>19.57584855233149</v>
+        <v>19.12679179933041</v>
       </c>
       <c r="D221">
-        <v>19.96765571318385</v>
+        <v>19.10035766907295</v>
       </c>
       <c r="E221">
-        <v>20.11188860573941</v>
+        <v>19.05299616540602</v>
       </c>
       <c r="F221">
-        <v>20.39301171727811</v>
+        <v>19.00583212620335</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>21.49267076187764</v>
+        <v>19.02740428331898</v>
       </c>
       <c r="C222">
-        <v>19.51498771960677</v>
+        <v>19.05760512609563</v>
       </c>
       <c r="D222">
-        <v>19.91237171898506</v>
+        <v>19.03202156556274</v>
       </c>
       <c r="E222">
-        <v>20.05895724229485</v>
+        <v>18.98020479380662</v>
       </c>
       <c r="F222">
-        <v>20.34202479823917</v>
+        <v>18.9294287716567</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>21.4616830579093</v>
+        <v>18.95635498933588</v>
       </c>
       <c r="C223">
-        <v>19.45420078938212</v>
+        <v>18.98852374249562</v>
       </c>
       <c r="D223">
-        <v>19.85716875720796</v>
+        <v>18.96379720619624</v>
       </c>
       <c r="E223">
-        <v>20.00609928547145</v>
+        <v>18.90748013425673</v>
       </c>
       <c r="F223">
-        <v>20.29110304000267</v>
+        <v>18.85307849603613</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>21.43071305208215</v>
+        <v>18.88538692423004</v>
       </c>
       <c r="C224">
-        <v>19.39348788019754</v>
+        <v>18.91954770004563</v>
       </c>
       <c r="D224">
-        <v>19.80204681497333</v>
+        <v>18.89568468651762</v>
       </c>
       <c r="E224">
-        <v>19.95331471604626</v>
+        <v>18.83482241391177</v>
       </c>
       <c r="F224">
-        <v>20.24024642000216</v>
+        <v>18.77678230529805</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>21.39976075526458</v>
+        <v>18.81450019725935</v>
       </c>
       <c r="C225">
-        <v>19.33284910785633</v>
+        <v>18.85067705097971</v>
       </c>
       <c r="D225">
-        <v>19.74700587959331</v>
+        <v>18.82768410236451</v>
       </c>
       <c r="E225">
-        <v>19.90060351497783</v>
+        <v>18.76223185220361</v>
       </c>
       <c r="F225">
-        <v>20.18945491571899</v>
+        <v>18.70054119209467</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>21.36882617803247</v>
+        <v>18.74369491230194</v>
       </c>
       <c r="C226">
-        <v>19.27228458742277</v>
+        <v>18.78191184826823</v>
       </c>
       <c r="D226">
-        <v>19.69204593857208</v>
+        <v>18.75979554922406</v>
       </c>
       <c r="E226">
-        <v>19.84796566340597</v>
+        <v>18.68970866994815</v>
       </c>
       <c r="F226">
-        <v>20.13872850474408</v>
+        <v>18.62435614044056</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>21.33790933084412</v>
+        <v>18.67297116736543</v>
       </c>
       <c r="C227">
-        <v>19.21179443340252</v>
+        <v>18.71325214562359</v>
       </c>
       <c r="D227">
-        <v>19.63716697960515</v>
+        <v>18.69201912209712</v>
       </c>
       <c r="E227">
-        <v>19.79540114265259</v>
+        <v>18.61725307902526</v>
       </c>
       <c r="F227">
-        <v>20.08806716478231</v>
+        <v>18.54822812189865</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>21.30701022419307</v>
+        <v>18.60232905661714</v>
       </c>
       <c r="C228">
-        <v>19.15137875847739</v>
+        <v>18.6446979974988</v>
       </c>
       <c r="D228">
-        <v>19.58236899056172</v>
+        <v>18.62435491594844</v>
       </c>
       <c r="E228">
-        <v>19.74290993422185</v>
+        <v>18.54486528624528</v>
       </c>
       <c r="F228">
-        <v>20.03747087365701</v>
+        <v>18.47215809667123</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>21.27612886835378</v>
+        <v>18.5317686710241</v>
       </c>
       <c r="C229">
-        <v>19.09103767409614</v>
+        <v>18.57624945910638</v>
       </c>
       <c r="D229">
-        <v>19.52765195953257</v>
+        <v>18.55680302582421</v>
       </c>
       <c r="E229">
-        <v>19.69049201979812</v>
+        <v>18.47254548526112</v>
       </c>
       <c r="F229">
-        <v>19.98693960931438</v>
+        <v>18.39614701135961</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>21.24526527347815</v>
+        <v>18.46129009737432</v>
       </c>
       <c r="C230">
-        <v>19.03077129053706</v>
+        <v>18.50790658642743</v>
       </c>
       <c r="D230">
-        <v>19.47301587479181</v>
+        <v>18.48936354659762</v>
       </c>
       <c r="E230">
-        <v>19.63814738124848</v>
+        <v>18.40029386266501</v>
       </c>
       <c r="F230">
-        <v>19.93647334918724</v>
+        <v>18.32019580606973</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>21.21441944960172</v>
+        <v>18.39089341695097</v>
       </c>
       <c r="C231">
-        <v>18.97057971454431</v>
+        <v>18.43966943621035</v>
       </c>
       <c r="D231">
-        <v>19.4184607248082</v>
+        <v>18.42203657280826</v>
       </c>
       <c r="E231">
-        <v>19.58587600062594</v>
+        <v>18.32811061247056</v>
       </c>
       <c r="F231">
-        <v>19.88607207162139</v>
+        <v>18.24430540948939</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>21.18359140646785</v>
+        <v>18.32057870931874</v>
       </c>
       <c r="C232">
-        <v>18.91046305480951</v>
+        <v>18.37153806598501</v>
       </c>
       <c r="D232">
-        <v>19.36398649824583</v>
+        <v>18.35482219920726</v>
       </c>
       <c r="E232">
-        <v>19.53367786016491</v>
+        <v>18.2559959186016</v>
       </c>
       <c r="F232">
-        <v>19.83573575493424</v>
+        <v>18.16847674062751</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>21.15278115390231</v>
+        <v>18.25034605047127</v>
       </c>
       <c r="C233">
-        <v>18.85042141787497</v>
+        <v>18.30351253407248</v>
       </c>
       <c r="D233">
-        <v>19.30959318395974</v>
+        <v>18.28772052048981</v>
       </c>
       <c r="E233">
-        <v>19.48155294228302</v>
+        <v>18.1839499609191</v>
       </c>
       <c r="F233">
-        <v>19.78546437748507</v>
+        <v>18.09271070590334</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>21.12198870159591</v>
+        <v>18.18019551308211</v>
       </c>
       <c r="C234">
-        <v>18.79045490921355</v>
+        <v>18.23559289957843</v>
       </c>
       <c r="D234">
-        <v>19.25528077096266</v>
+        <v>18.22073163133605</v>
       </c>
       <c r="E234">
-        <v>19.42950122958138</v>
+        <v>18.11197290814525</v>
       </c>
       <c r="F234">
-        <v>19.73525791776383</v>
+        <v>18.01700820569936</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>21.09121405911643</v>
+        <v>18.11012716538264</v>
       </c>
       <c r="C235">
-        <v>18.73056363331792</v>
+        <v>18.16777922241871</v>
       </c>
       <c r="D235">
-        <v>19.20104924852108</v>
+        <v>18.15385562633223</v>
       </c>
       <c r="E235">
-        <v>19.37752270484404</v>
+        <v>18.04006492286753</v>
       </c>
       <c r="F235">
-        <v>19.68511635439496</v>
+        <v>17.94137013071001</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>21.06045723593589</v>
+        <v>18.04014107463001</v>
       </c>
       <c r="C236">
-        <v>18.67074769310538</v>
+        <v>18.10007156330756</v>
       </c>
       <c r="D236">
-        <v>19.14689860607496</v>
+        <v>18.08709260027199</v>
       </c>
       <c r="E236">
-        <v>19.32561735103616</v>
+        <v>17.96822617466827</v>
       </c>
       <c r="F236">
-        <v>19.63503966614122</v>
+        <v>17.86579736285476</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>21.02971824140974</v>
+        <v>17.97023730489692</v>
       </c>
       <c r="C237">
-        <v>18.61100718949127</v>
+        <v>18.03246998377813</v>
       </c>
       <c r="D237">
-        <v>19.09282883326082</v>
+        <v>18.02044264798162</v>
       </c>
       <c r="E237">
-        <v>19.27378515131164</v>
+        <v>17.89645682436388</v>
       </c>
       <c r="F237">
-        <v>19.58502783183691</v>
+        <v>17.79029077389844</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>20.99899708465124</v>
+        <v>17.9004159173822</v>
       </c>
       <c r="C238">
-        <v>18.55134222471249</v>
+        <v>17.96497454618336</v>
       </c>
       <c r="D238">
-        <v>19.0388399199122</v>
+        <v>17.95390586433005</v>
       </c>
       <c r="E238">
-        <v>19.22202608900661</v>
+        <v>17.82475702932944</v>
       </c>
       <c r="F238">
-        <v>19.53508082953191</v>
+        <v>17.7148512280837</v>
       </c>
     </row>
   </sheetData>
